--- a/opm_hero_property/heroes/8.xlsx
+++ b/opm_hero_property/heroes/8.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grade" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3109,13 +3110,13 @@
         <v>20</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3619</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>718</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>483</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -3133,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>2494</v>
+        <v>1657</v>
       </c>
       <c r="AC2" t="n">
         <v>35</v>
@@ -3145,10 +3146,10 @@
         <v>35</v>
       </c>
       <c r="AF2" t="n">
-        <v>3531</v>
+        <v>2554</v>
       </c>
       <c r="AG2" t="n">
-        <v>616</v>
+        <v>507</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -3179,17 +3180,17 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3619;31,718;41,483;22,35;32,35;42,35</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2494;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,1657;22,35;32,35;42,35</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,3531;31,616;41,0;22,17;32,17;42,17</t>
+          <t>21,2554;31,507;41,0;22,17;32,17;42,17</t>
         </is>
       </c>
     </row>
@@ -3252,13 +3253,13 @@
         <v>40</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4166</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>798</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>603</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -3276,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2636</v>
+        <v>2070</v>
       </c>
       <c r="AC3" t="n">
         <v>70</v>
@@ -3288,10 +3289,10 @@
         <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>3699</v>
+        <v>2940</v>
       </c>
       <c r="AG3" t="n">
-        <v>646</v>
+        <v>563</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -3322,17 +3323,17 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4166;31,798;41,603;22,70;32,70;42,70</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2636;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,2070;22,70;32,70;42,70</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,3699;31,646;41,0;22,35;32,35;42,35</t>
+          <t>21,2940;31,563;41,0;22,35;32,35;42,35</t>
         </is>
       </c>
     </row>
@@ -3395,13 +3396,13 @@
         <v>60</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5093</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -3419,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2784</v>
+        <v>2793</v>
       </c>
       <c r="AC4" t="n">
         <v>105</v>
@@ -3431,10 +3432,10 @@
         <v>105</v>
       </c>
       <c r="AF4" t="n">
-        <v>3875</v>
+        <v>3594</v>
       </c>
       <c r="AG4" t="n">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -3465,17 +3466,17 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5093;31,937;41,814;22,105;32,105;42,105</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2784;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,2793;22,105;32,105;42,105</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,3875;31,676;41,0;22,52;32,52;42,52</t>
+          <t>21,3594;31,661;41,0;22,52;32,52;42,52</t>
         </is>
       </c>
     </row>
@@ -3538,13 +3539,13 @@
         <v>80</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5459</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -3562,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>3028</v>
+        <v>3044</v>
       </c>
       <c r="AC5" t="n">
         <v>140</v>
@@ -3574,10 +3575,10 @@
         <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>4151</v>
+        <v>3853</v>
       </c>
       <c r="AG5" t="n">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3608,17 +3609,17 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5459;31,1004;41,887;22,140;32,140;42,140</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3028;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,3044;22,140;32,140;42,140</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,4151;31,724;41,0;22,70;32,70;42,70</t>
+          <t>21,3853;31,708;41,0;22,70;32,70;42,70</t>
         </is>
       </c>
     </row>
@@ -3681,13 +3682,13 @@
         <v>100</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5849</v>
       </c>
       <c r="U6" t="n">
         <v>1075</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>966</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>3197</v>
+        <v>3313</v>
       </c>
       <c r="AC6" t="n">
         <v>175</v>
@@ -3717,10 +3718,10 @@
         <v>175</v>
       </c>
       <c r="AF6" t="n">
-        <v>4348</v>
+        <v>4128</v>
       </c>
       <c r="AG6" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3751,17 +3752,17 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5849;31,1075;41,966;22,175;32,175;42,175</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3197;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,3313;22,175;32,175;42,175</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,4348;31,758;41,0;22,87;32,87;42,87</t>
+          <t>21,4128;31,759;41,0;22,87;32,87;42,87</t>
         </is>
       </c>
     </row>
@@ -3824,13 +3825,13 @@
         <v>120</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6265</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1050</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -3848,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>3375</v>
+        <v>3603</v>
       </c>
       <c r="AC7" t="n">
         <v>210</v>
@@ -3860,10 +3861,10 @@
         <v>210</v>
       </c>
       <c r="AF7" t="n">
-        <v>4555</v>
+        <v>4421</v>
       </c>
       <c r="AG7" t="n">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -3894,17 +3895,17 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6265;31,1151;41,1050;22,210;32,210;42,210</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3375;22,210;32,210;42,210</t>
+          <t>21,0;31,0;41,3603;22,210;32,210;42,210</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,4555;31,794;41,0;22,105;32,105;42,105</t>
+          <t>21,4421;31,812;41,0;22,105;32,105;42,105</t>
         </is>
       </c>
     </row>
@@ -3967,13 +3968,13 @@
         <v>140</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6707</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1232</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1141</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -3991,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>3561</v>
+        <v>3913</v>
       </c>
       <c r="AC8" t="n">
         <v>245</v>
@@ -4003,10 +4004,10 @@
         <v>245</v>
       </c>
       <c r="AF8" t="n">
-        <v>4772</v>
+        <v>4733</v>
       </c>
       <c r="AG8" t="n">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -4037,17 +4038,17 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6707;31,1232;41,1141;22,245;32,245;42,245</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3561;22,245;32,245;42,245</t>
+          <t>21,0;31,0;41,3913;22,245;32,245;42,245</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,4772;31,832;41,0;22,122;32,122;42,122</t>
+          <t>21,4733;31,869;41,0;22,122;32,122;42,122</t>
         </is>
       </c>
     </row>
@@ -4110,13 +4111,13 @@
         <v>157</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7450</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1368</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1293</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -4134,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>3925</v>
+        <v>4437</v>
       </c>
       <c r="AC9" t="n">
         <v>280</v>
@@ -4146,10 +4147,10 @@
         <v>280</v>
       </c>
       <c r="AF9" t="n">
-        <v>5189</v>
+        <v>5258</v>
       </c>
       <c r="AG9" t="n">
-        <v>905</v>
+        <v>965</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -4180,17 +4181,17 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7450;31,1368;41,1293;22,280;32,280;42,280</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3925;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,4437;22,280;32,280;42,280</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,5189;31,905;41,0;22,140;32,140;42,140</t>
+          <t>21,5258;31,965;41,0;22,140;32,140;42,140</t>
         </is>
       </c>
     </row>
@@ -4253,13 +4254,13 @@
         <v>167</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8066</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1481</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1418</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -4277,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>4302</v>
+        <v>4864</v>
       </c>
       <c r="AC10" t="n">
         <v>315</v>
@@ -4289,10 +4290,10 @@
         <v>315</v>
       </c>
       <c r="AF10" t="n">
-        <v>5619</v>
+        <v>5693</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1045</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -4323,17 +4324,17 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8066;31,1481;41,1418;22,315;32,315;42,315</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,4302;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,4864;22,315;32,315;42,315</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,5619;31,980;41,0;22,157;32,157;42,157</t>
+          <t>21,5693;31,1045;41,0;22,157;32,157;42,157</t>
         </is>
       </c>
     </row>
@@ -4396,13 +4397,13 @@
         <v>175</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>8696</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1597</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1546</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -4420,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>4691</v>
+        <v>5305</v>
       </c>
       <c r="AC11" t="n">
         <v>350</v>
@@ -4432,10 +4433,10 @@
         <v>350</v>
       </c>
       <c r="AF11" t="n">
-        <v>6057</v>
+        <v>6138</v>
       </c>
       <c r="AG11" t="n">
-        <v>1056</v>
+        <v>1127</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -4466,17 +4467,1073 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,8696;31,1597;41,1546;22,350;32,350;42,350</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,4691;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,5305;22,350;32,350;42,350</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,6057;31,1056;41,0;22,175;32,175;42,175</t>
+          <t>21,6138;31,1127;41,0;22,175;32,175;42,175</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>等级</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>生命_pve</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>攻击_pve</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>防御_pve</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>生命_pvp</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>攻击_pvp</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>防御_pvp</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pve输出</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pvp输出</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>454</v>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>21,454;31,83;41,79</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>21,51;31,9;41,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C3" t="n">
+        <v>357</v>
+      </c>
+      <c r="D3" t="n">
+        <v>339</v>
+      </c>
+      <c r="E3" t="n">
+        <v>219</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>21,1948;31,357;41,339</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>21,219;31,40;41,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4564</v>
+      </c>
+      <c r="C4" t="n">
+        <v>838</v>
+      </c>
+      <c r="D4" t="n">
+        <v>795</v>
+      </c>
+      <c r="E4" t="n">
+        <v>514</v>
+      </c>
+      <c r="F4" t="n">
+        <v>94</v>
+      </c>
+      <c r="G4" t="n">
+        <v>91</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>21,4564;31,838;41,795</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>21,514;31,94;41,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8352</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1533</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>940</v>
+      </c>
+      <c r="F5" t="n">
+        <v>172</v>
+      </c>
+      <c r="G5" t="n">
+        <v>167</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>21,8352;31,1533;41,1455</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>21,940;31,172;41,167</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13345</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2450</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2325</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1502</v>
+      </c>
+      <c r="F6" t="n">
+        <v>275</v>
+      </c>
+      <c r="G6" t="n">
+        <v>267</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>21,13345;31,2450;41,2325</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>21,1502;31,275;41,267</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19570</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3593</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3409</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2203</v>
+      </c>
+      <c r="F7" t="n">
+        <v>404</v>
+      </c>
+      <c r="G7" t="n">
+        <v>392</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>21,19570;31,3593;41,3409</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>21,2203;31,404;41,392</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27051</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4967</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4713</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3046</v>
+      </c>
+      <c r="F8" t="n">
+        <v>559</v>
+      </c>
+      <c r="G8" t="n">
+        <v>541</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>21,27051;31,4967;41,4713</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>21,3046;31,559;41,541</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35807</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6238</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4032</v>
+      </c>
+      <c r="F9" t="n">
+        <v>740</v>
+      </c>
+      <c r="G9" t="n">
+        <v>717</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>21,35807;31,6575;41,6238</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21,4032;31,740;41,717</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45855</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8420</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7989</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5164</v>
+      </c>
+      <c r="F10" t="n">
+        <v>948</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>21,45855;31,8420;41,7989</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>21,5164;31,948;41,918</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10506</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9968</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6442</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1183</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1146</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>21,57211;31,10506;41,9968</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>21,6442;31,1183;41,1146</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>69888</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12834</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12177</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7870</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1445</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1399</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>21,69888;31,12834;41,12177</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>21,7870;31,1445;41,1399</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>83900</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15407</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14618</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9448</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1735</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1680</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>21,83900;31,15407;41,14618</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>21,9448;31,1735;41,1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99257</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18227</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17294</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11178</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2052</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>21,99257;31,18227;41,17294</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>21,11178;31,2052;41,1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>115971</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21296</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20206</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13060</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2398</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2323</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>21,115971;31,21296;41,20206</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>21,13060;31,2398;41,2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>134052</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24616</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23356</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15096</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2772</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2685</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>21,134052;31,24616;41,23356</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>21,15096;31,2772;41,2685</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>153509</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28189</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26746</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17287</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3174</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3074</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>21,153509;31,28189;41,26746</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>21,17287;31,3174;41,3074</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>174351</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32017</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30378</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19634</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3605</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3492</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>21,174351;31,32017;41,30378</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>21,19634;31,3605;41,3492</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>196587</v>
+      </c>
+      <c r="C19" t="n">
+        <v>36100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>34252</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22138</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3937</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>21,196587;31,36100;41,34252</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>21,22138;31,4065;41,3937</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>220224</v>
+      </c>
+      <c r="C20" t="n">
+        <v>40441</v>
+      </c>
+      <c r="D20" t="n">
+        <v>38371</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24800</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4554</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4411</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>21,220224;31,40441;41,38371</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>21,24800;31,4554;41,4411</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>245271</v>
+      </c>
+      <c r="C21" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D21" t="n">
+        <v>42735</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27621</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5072</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4913</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>21,245271;31,45040;41,42735</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>21,27621;31,5072;41,4913</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>271733</v>
+      </c>
+      <c r="C22" t="n">
+        <v>49900</v>
+      </c>
+      <c r="D22" t="n">
+        <v>47345</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30601</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5619</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5443</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>21,271733;31,49900;41,47345</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>21,30601;31,5619;41,5443</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>299620</v>
+      </c>
+      <c r="C23" t="n">
+        <v>55021</v>
+      </c>
+      <c r="D23" t="n">
+        <v>52204</v>
+      </c>
+      <c r="E23" t="n">
+        <v>33742</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>21,299620;31,55021;41,52204</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>21,33742;31,6196;41,6001</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>328936</v>
+      </c>
+      <c r="C24" t="n">
+        <v>60404</v>
+      </c>
+      <c r="D24" t="n">
+        <v>57312</v>
+      </c>
+      <c r="E24" t="n">
+        <v>37043</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6589</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>21,328936;31,60404;41,57312</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>21,37043;31,6802;41,6589</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>359688</v>
+      </c>
+      <c r="C25" t="n">
+        <v>66051</v>
+      </c>
+      <c r="D25" t="n">
+        <v>62670</v>
+      </c>
+      <c r="E25" t="n">
+        <v>40506</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7438</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7205</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>21,359688;31,66051;41,62670</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>21,40506;31,7438;41,7205</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>391883</v>
+      </c>
+      <c r="C26" t="n">
+        <v>71963</v>
+      </c>
+      <c r="D26" t="n">
+        <v>68280</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44132</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8104</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7849</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>21,391883;31,71963;41,68280</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>21,44132;31,8104;41,7849</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>425527</v>
+      </c>
+      <c r="C27" t="n">
+        <v>78142</v>
+      </c>
+      <c r="D27" t="n">
+        <v>74142</v>
+      </c>
+      <c r="E27" t="n">
+        <v>47921</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8523</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>21,425527;31,78142;41,74142</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>21,47921;31,8800;41,8523</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>460624</v>
+      </c>
+      <c r="C28" t="n">
+        <v>84587</v>
+      </c>
+      <c r="D28" t="n">
+        <v>80257</v>
+      </c>
+      <c r="E28" t="n">
+        <v>51873</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9525</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9226</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>21,460624;31,84587;41,80257</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>21,51873;31,9525;41,9226</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>497181</v>
+      </c>
+      <c r="C29" t="n">
+        <v>91300</v>
+      </c>
+      <c r="D29" t="n">
+        <v>86627</v>
+      </c>
+      <c r="E29" t="n">
+        <v>55990</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10281</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9959</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21,497181;31,91300;41,86627</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>21,55990;31,10281;41,9959</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>535203</v>
+      </c>
+      <c r="C30" t="n">
+        <v>98282</v>
+      </c>
+      <c r="D30" t="n">
+        <v>93252</v>
+      </c>
+      <c r="E30" t="n">
+        <v>60272</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11068</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10720</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>21,535203;31,98282;41,93252</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>21,60272;31,11068;41,10720</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>574695</v>
+      </c>
+      <c r="C31" t="n">
+        <v>105534</v>
+      </c>
+      <c r="D31" t="n">
+        <v>100133</v>
+      </c>
+      <c r="E31" t="n">
+        <v>64720</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11884</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11511</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>21,574695;31,105534;41,100133</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>21,64720;31,11884;41,11511</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/8.xlsx
+++ b/opm_hero_property/heroes/8.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,46 @@
         <is>
           <t>支援</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>初始生命</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>初始攻击</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>初始防御</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>初始暴击</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +560,96 @@
           <t>PVP属性最大值</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>PVE属性最大值_HP</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>PVE属性最大值_ATK</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>PVE属性最大值_DEF</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>PVE光环最大值</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>PVE光环最大值</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>PVE光环最大值</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>PVE阵营光环最大值</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>PVE阵营光环最大值</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>PVE阵营光环最大值</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>PVP属性最大值_HP</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>PVP属性最大值_ATK</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>PVP属性最大值_DEF</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>PVP光环最大值</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>PVP光环最大值</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>PVP光环最大值</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>PVP阵营光环最大值</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>PVP阵营光环最大值</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>PVP阵营光环最大值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -545,33 +675,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,43274;31,8200;41,2764</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,43274;31,8200;41,2764</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,21637;31,4100;41,1382</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,5227;31,988;41,395</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,5227;31,988;41,395</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,2613;31,494;41,197</t>
-        </is>
+          <t>21,1;31,1;41,1</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -594,37 +778,91 @@
         <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,43278;31,8201;41,2765</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,43278;31,8201;41,2765</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,21639;31,4100;41,1382</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,5231;31,990;41,395</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,5231;31,990;41,395</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,2615;31,495;41,197</t>
-        </is>
+          <t>21,1;31,1;41,1</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +876,7 @@
         <v>11122</v>
       </c>
       <c r="D4" t="n">
-        <v>11752</v>
+        <v>11122</v>
       </c>
       <c r="E4" t="n">
         <v>241</v>
@@ -647,37 +885,91 @@
         <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,46148;31,9108;41,3232</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,46148;31,9108;41,3232</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,23074;31,4554;41,1616</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,5540;31,1087;41,447</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,5540;31,1087;41,447</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,2770;31,543;41,223</t>
-        </is>
+          <t>21,1;31,1;41,1</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -691,7 +983,7 @@
         <v>12394</v>
       </c>
       <c r="D5" t="n">
-        <v>13737</v>
+        <v>12394</v>
       </c>
       <c r="E5" t="n">
         <v>361</v>
@@ -700,37 +992,91 @@
         <v>108</v>
       </c>
       <c r="G5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,49401;31,10136;41,3760</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,49401;31,10136;41,3760</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,24700;31,5068;41,1880</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,5890;31,1198;41,505</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,5890;31,1198;41,505</t>
+          <t>21,1;31,1;41,1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,2945;31,599;41,252</t>
-        </is>
+          <t>21,1;31,1;41,1</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -744,7 +1090,7 @@
         <v>13891</v>
       </c>
       <c r="D6" t="n">
-        <v>16073</v>
+        <v>13891</v>
       </c>
       <c r="E6" t="n">
         <v>494</v>
@@ -753,37 +1099,91 @@
         <v>148</v>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53229;31,11346;41,4382</t>
+          <t>21,53229;31,11346;41,4333</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53229;31,11346;41,4382</t>
+          <t>21,1;31,1;41,14862</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26614;31,5673;41,2191</t>
+          <t>21,37569;31,8008;41,1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6302;31,1328;41,574</t>
+          <t>21,6302;31,1328;41,566</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6302;31,1328;41,574</t>
+          <t>21,1;31,1;41,1943</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3151;31,664;41,287</t>
-        </is>
+          <t>21,4448;31,937;41,1</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>53229</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11346</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4333</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14862</v>
+      </c>
+      <c r="T6" t="n">
+        <v>37569</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8008</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6302</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1328</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>566</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1943</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4448</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>937</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +1197,7 @@
         <v>15612</v>
       </c>
       <c r="D7" t="n">
-        <v>20948</v>
+        <v>15612</v>
       </c>
       <c r="E7" t="n">
         <v>927</v>
@@ -806,37 +1206,91 @@
         <v>247</v>
       </c>
       <c r="G7" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59431;31,12738;41,5682</t>
+          <t>21,59431;31,12738;41,5595</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59431;31,12738;41,5682</t>
+          <t>21,1;31,1;41,19190</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29715;31,6369;41,2841</t>
+          <t>21,41946;31,8991;41,1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6975;31,1479;41,718</t>
+          <t>21,6975;31,1479;41,706</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6975;31,1479;41,718</t>
+          <t>21,1;31,1;41,2424</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3487;31,739;41,359</t>
-        </is>
+          <t>21,4923;31,1044;41,1</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>59431</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12738</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5595</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>19190</v>
+      </c>
+      <c r="T7" t="n">
+        <v>41946</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8991</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6975</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1479</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>706</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2424</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4923</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +1304,7 @@
         <v>17557</v>
       </c>
       <c r="D8" t="n">
-        <v>27692</v>
+        <v>17557</v>
       </c>
       <c r="E8" t="n">
         <v>1373</v>
@@ -859,37 +1313,91 @@
         <v>330</v>
       </c>
       <c r="G8" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67447;31,14311;41,7479</t>
+          <t>21,67447;31,14311;41,7341</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67447;31,14311;41,7479</t>
+          <t>21,1;31,1;41,25177</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33723;31,7155;41,3739</t>
+          <t>21,47604;31,10101;41,1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7842;31,1649;41,917</t>
+          <t>21,7842;31,1649;41,900</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7842;31,1649;41,917</t>
+          <t>21,1;31,1;41,3087</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3921;31,824;41,458</t>
-        </is>
+          <t>21,5535;31,1164;41,1</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>67447</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14311</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7341</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25177</v>
+      </c>
+      <c r="T8" t="n">
+        <v>47604</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10101</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7842</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1649</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>900</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3087</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5535</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -903,7 +1411,7 @@
         <v>19801</v>
       </c>
       <c r="D9" t="n">
-        <v>36772</v>
+        <v>19801</v>
       </c>
       <c r="E9" t="n">
         <v>1813</v>
@@ -912,37 +1420,91 @@
         <v>395</v>
       </c>
       <c r="G9" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77758;31,16124;41,9897</t>
+          <t>21,77757;31,16124;41,9691</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77758;31,16124;41,9897</t>
+          <t>21,1;31,1;41,33235</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,38879;31,8062;41,4948</t>
+          <t>21,54882;31,11380;41,1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8954;31,1844;41,1185</t>
+          <t>21,8954;31,1844;41,1160</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8954;31,1844;41,1185</t>
+          <t>21,1;31,1;41,3978</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4477;31,922;41,592</t>
-        </is>
+          <t>21,6319;31,1301;41,1</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>77757</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16124</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9691</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>33235</v>
+      </c>
+      <c r="T9" t="n">
+        <v>54882</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11380</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8954</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1844</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3978</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6319</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1301</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -956,7 +1518,7 @@
         <v>20999</v>
       </c>
       <c r="D10" t="n">
-        <v>44333</v>
+        <v>20999</v>
       </c>
       <c r="E10" t="n">
         <v>2143</v>
@@ -965,37 +1527,91 @@
         <v>428</v>
       </c>
       <c r="G10" t="n">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,85484;31,17092;41,11912</t>
+          <t>21,85484;31,17092;41,11647</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,85484;31,17092;41,11912</t>
+          <t>21,1;31,1;41,39944</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,42742;31,8546;41,5956</t>
+          <t>21,60335;31,12064;41,1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9786;31,1948;41,1408</t>
+          <t>21,9786;31,1948;41,1376</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9786;31,1948;41,1408</t>
+          <t>21,1;31,1;41,4720</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4893;31,974;41,704</t>
-        </is>
+          <t>21,6907;31,1375;41,1</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>85484</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17092</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11647</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39944</v>
+      </c>
+      <c r="T10" t="n">
+        <v>60335</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12064</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9786</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1948</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1376</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6907</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1009,7 +1625,7 @@
         <v>22420</v>
       </c>
       <c r="D11" t="n">
-        <v>53617</v>
+        <v>22420</v>
       </c>
       <c r="E11" t="n">
         <v>2500</v>
@@ -1018,37 +1634,91 @@
         <v>461</v>
       </c>
       <c r="G11" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,94907;31,18240;41,14384</t>
+          <t>21,94907;31,18240;41,14049</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,94907;31,18240;41,14384</t>
+          <t>21,1;31,1;41,48181</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47453;31,9120;41,7192</t>
+          <t>21,66985;31,12874;41,1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10800;31,2071;41,1681</t>
+          <t>21,10800;31,2071;41,1641</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10800;31,2071;41,1681</t>
+          <t>21,1;31,1;41,5630</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5400;31,1035;41,840</t>
-        </is>
+          <t>21,7623;31,1462;41,1</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>94907</v>
+      </c>
+      <c r="O11" t="n">
+        <v>18240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14049</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>48181</v>
+      </c>
+      <c r="T11" t="n">
+        <v>66985</v>
+      </c>
+      <c r="U11" t="n">
+        <v>12874</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10800</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2071</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1641</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5630</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7623</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1462</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1062,7 +1732,7 @@
         <v>25413</v>
       </c>
       <c r="D12" t="n">
-        <v>70141</v>
+        <v>25413</v>
       </c>
       <c r="E12" t="n">
         <v>3077</v>
@@ -1071,37 +1741,91 @@
         <v>527</v>
       </c>
       <c r="G12" t="n">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,112269;31,20658;41,18785</t>
+          <t>21,112269;31,20658;41,18324</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,112269;31,20658;41,18785</t>
+          <t>21,1;31,1;41,62841</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,56134;31,10329;41,9392</t>
+          <t>21,79240;31,14580;41,1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12666;31,2331;41,2166</t>
+          <t>21,12666;31,2331;41,2113</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12666;31,2331;41,2166</t>
+          <t>21,1;31,1;41,7247</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6333;31,1165;41,1083</t>
-        </is>
+          <t>21,8940;31,1645;41,1</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>112269</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20658</v>
+      </c>
+      <c r="P12" t="n">
+        <v>18324</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>62841</v>
+      </c>
+      <c r="T12" t="n">
+        <v>79240</v>
+      </c>
+      <c r="U12" t="n">
+        <v>14580</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12666</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2331</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2113</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7247</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8940</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1645</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1115,7 +1839,7 @@
         <v>26011</v>
       </c>
       <c r="D13" t="n">
-        <v>72477</v>
+        <v>26011</v>
       </c>
       <c r="E13" t="n">
         <v>3461</v>
@@ -1124,37 +1848,91 @@
         <v>593</v>
       </c>
       <c r="G13" t="n">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,114956;31,21143;41,19409</t>
+          <t>21,114956;31,21143;41,18929</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,114956;31,21143;41,19409</t>
+          <t>21,1;31,1;41,64919</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,57478;31,10571;41,9704</t>
+          <t>21,81137;31,14923;41,1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12964;31,2384;41,2237</t>
+          <t>21,12964;31,2384;41,2181</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12964;31,2384;41,2237</t>
+          <t>21,1;31,1;41,7482</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6482;31,1192;41,1118</t>
-        </is>
+          <t>21,9150;31,1683;41,1</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>114956</v>
+      </c>
+      <c r="O13" t="n">
+        <v>21143</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18929</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>64919</v>
+      </c>
+      <c r="T13" t="n">
+        <v>81137</v>
+      </c>
+      <c r="U13" t="n">
+        <v>14923</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12964</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2181</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7482</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9150</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1683</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1168,7 +1946,7 @@
         <v>26610</v>
       </c>
       <c r="D14" t="n">
-        <v>74813</v>
+        <v>26610</v>
       </c>
       <c r="E14" t="n">
         <v>3846</v>
@@ -1177,37 +1955,91 @@
         <v>659</v>
       </c>
       <c r="G14" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,117648;31,21629;41,20033</t>
+          <t>21,117648;31,21629;41,19535</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,117648;31,21629;41,20033</t>
+          <t>21,1;31,1;41,66996</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,58824;31,10814;41,10016</t>
+          <t>21,83036;31,15266;41,1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13263;31,2438;41,2307</t>
+          <t>21,13263;31,2438;41,2249</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13263;31,2438;41,2307</t>
+          <t>21,1;31,1;41,7716</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6631;31,1219;41,1153</t>
-        </is>
+          <t>21,9361;31,1721;41,1</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>117648</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21629</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19535</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>66996</v>
+      </c>
+      <c r="T14" t="n">
+        <v>83036</v>
+      </c>
+      <c r="U14" t="n">
+        <v>15266</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13263</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2438</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2249</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7716</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9361</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1721</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1221,7 +2053,7 @@
         <v>27209</v>
       </c>
       <c r="D15" t="n">
-        <v>77148</v>
+        <v>27209</v>
       </c>
       <c r="E15" t="n">
         <v>4230</v>
@@ -1230,37 +2062,91 @@
         <v>725</v>
       </c>
       <c r="G15" t="n">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,120335;31,22115;41,20656</t>
+          <t>21,120335;31,22115;41,20141</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,120335;31,22115;41,20656</t>
+          <t>21,1;31,1;41,69074</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,60167;31,11057;41,10328</t>
+          <t>21,84933;31,15608;41,1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13561;31,2492;41,2377</t>
+          <t>21,13561;31,2492;41,2318</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13561;31,2492;41,2377</t>
+          <t>21,1;31,1;41,7950</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6780;31,1246;41,1188</t>
-        </is>
+          <t>21,9571;31,1759;41,1</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>120335</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22115</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20141</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>69074</v>
+      </c>
+      <c r="T15" t="n">
+        <v>84933</v>
+      </c>
+      <c r="U15" t="n">
+        <v>15608</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13561</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2492</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2318</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7950</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9571</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1759</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1274,7 +2160,7 @@
         <v>27807</v>
       </c>
       <c r="D16" t="n">
-        <v>79484</v>
+        <v>27807</v>
       </c>
       <c r="E16" t="n">
         <v>4615</v>
@@ -1283,37 +2169,91 @@
         <v>791</v>
       </c>
       <c r="G16" t="n">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,123023;31,22599;41,21280</t>
+          <t>21,123023;31,22599;41,20747</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,123023;31,22599;41,21280</t>
+          <t>21,1;31,1;41,71152</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,61511;31,11299;41,10640</t>
+          <t>21,86830;31,15951;41,1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13859;31,2546;41,2447</t>
+          <t>21,13859;31,2546;41,2386</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13859;31,2546;41,2447</t>
+          <t>21,1;31,1;41,8184</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6929;31,1273;41,1223</t>
-        </is>
+          <t>21,9781;31,1797;41,1</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>123023</v>
+      </c>
+      <c r="O16" t="n">
+        <v>22599</v>
+      </c>
+      <c r="P16" t="n">
+        <v>20747</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>71152</v>
+      </c>
+      <c r="T16" t="n">
+        <v>86830</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15951</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13859</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2546</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2386</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8184</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9781</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1797</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1327,7 +2267,7 @@
         <v>28406</v>
       </c>
       <c r="D17" t="n">
-        <v>81819</v>
+        <v>28406</v>
       </c>
       <c r="E17" t="n">
         <v>4999</v>
@@ -1336,37 +2276,91 @@
         <v>857</v>
       </c>
       <c r="G17" t="n">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,125714;31,23085;41,21904</t>
+          <t>21,125714;31,23085;41,21353</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,125714;31,23085;41,21904</t>
+          <t>21,1;31,1;41,73229</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,62857;31,11542;41,10952</t>
+          <t>21,88730;31,16294;41,1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14157;31,2599;41,2518</t>
+          <t>21,14157;31,2599;41,2454</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14157;31,2599;41,2518</t>
+          <t>21,1;31,1;41,8418</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7078;31,1299;41,1259</t>
-        </is>
+          <t>21,9992;31,1834;41,1</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>125714</v>
+      </c>
+      <c r="O17" t="n">
+        <v>23085</v>
+      </c>
+      <c r="P17" t="n">
+        <v>21353</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>73229</v>
+      </c>
+      <c r="T17" t="n">
+        <v>88730</v>
+      </c>
+      <c r="U17" t="n">
+        <v>16294</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>14157</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2599</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2454</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8418</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9992</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1834</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +2415,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1435,7 +2429,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1449,7 +2443,7 @@
         <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1463,7 +2457,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1477,7 +2471,7 @@
         <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -1491,7 +2485,7 @@
         <v>298</v>
       </c>
       <c r="D7" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -1505,7 +2499,7 @@
         <v>446</v>
       </c>
       <c r="D8" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1519,7 +2513,7 @@
         <v>625</v>
       </c>
       <c r="D9" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10">
@@ -1533,7 +2527,7 @@
         <v>893</v>
       </c>
       <c r="D10" t="n">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11">
@@ -1547,7 +2541,7 @@
         <v>1267</v>
       </c>
       <c r="D11" t="n">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="12">
@@ -1561,7 +2555,7 @@
         <v>1785</v>
       </c>
       <c r="D12" t="n">
-        <v>1314</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="13">
@@ -1575,7 +2569,7 @@
         <v>2571</v>
       </c>
       <c r="D13" t="n">
-        <v>1998</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="14">
@@ -1589,7 +2583,7 @@
         <v>3570</v>
       </c>
       <c r="D14" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +2597,7 @@
         <v>3570</v>
       </c>
       <c r="D15" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="16">
@@ -1617,7 +2611,7 @@
         <v>3570</v>
       </c>
       <c r="D16" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="17">
@@ -1631,7 +2625,7 @@
         <v>3570</v>
       </c>
       <c r="D17" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="18">
@@ -1645,7 +2639,7 @@
         <v>3570</v>
       </c>
       <c r="D18" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="19">
@@ -1659,7 +2653,7 @@
         <v>3570</v>
       </c>
       <c r="D19" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="20">
@@ -1673,7 +2667,7 @@
         <v>3570</v>
       </c>
       <c r="D20" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="21">
@@ -1687,7 +2681,7 @@
         <v>3570</v>
       </c>
       <c r="D21" t="n">
-        <v>2921</v>
+        <v>2847</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>450.0000000000001</v>
+        <v>450</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2668,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>450.0000000000001</v>
+        <v>450</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2702,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>450.0000000000001</v>
+        <v>450</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2736,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>450.0000000000001</v>
+        <v>450</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2770,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>450.0000000000001</v>
+        <v>450</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2804,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>450.0000000000001</v>
+        <v>450</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7397</v>
+        <v>7040</v>
       </c>
       <c r="C2" t="n">
-        <v>1484</v>
+        <v>1190</v>
       </c>
       <c r="D2" t="n">
-        <v>905</v>
+        <v>1200</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -3080,43 +4074,43 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3105</v>
+        <v>4100</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>5221</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>1047</v>
+        <v>910</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3619</v>
+        <v>5003</v>
       </c>
       <c r="U2" t="n">
-        <v>718</v>
+        <v>874</v>
       </c>
       <c r="V2" t="n">
-        <v>483</v>
+        <v>727</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -3134,63 +4128,63 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1657</v>
+        <v>2494</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AF2" t="n">
-        <v>2554</v>
+        <v>3531</v>
       </c>
       <c r="AG2" t="n">
-        <v>507</v>
+        <v>616</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7397;31,1484;41,905;22,40;32,40;42,40</t>
+          <t>21,7040;31,1190;41,1200;22,40;32,40;42,40</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3105;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,4100;22,0;32,0;42,120</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,5221;31,1047;41,0;22,20;32,20;42,20</t>
+          <t>21,5000;31,910;41,0;22,30;32,30;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,3619;31,718;41,483;22,35;32,35;42,35</t>
+          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1657;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,2494;22,0;32,0;42,105</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2554;31,507;41,0;22,17;32,17;42,17</t>
+          <t>21,3531;31,616;41,0;22,26;32,26;42,0</t>
         </is>
       </c>
     </row>
@@ -3199,13 +4193,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14873</v>
+        <v>14080</v>
       </c>
       <c r="C3" t="n">
-        <v>2853</v>
+        <v>2380</v>
       </c>
       <c r="D3" t="n">
-        <v>1949</v>
+        <v>2400</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -3223,43 +4217,43 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6687</v>
+        <v>8200</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N3" t="n">
-        <v>10497</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>2014</v>
+        <v>1820</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4166</v>
+        <v>5241</v>
       </c>
       <c r="U3" t="n">
-        <v>798</v>
+        <v>915</v>
       </c>
       <c r="V3" t="n">
-        <v>603</v>
+        <v>768</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -3277,63 +4271,63 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2070</v>
+        <v>2636</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>2940</v>
+        <v>3699</v>
       </c>
       <c r="AG3" t="n">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14873;31,2853;41,1949;22,80;32,80;42,80</t>
+          <t>21,14080;31,2380;41,2400;22,80;32,80;42,80</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,6687;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,8200;22,0;32,0;42,240</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,10497;31,2014;41,0;22,40;32,40;42,40</t>
+          <t>21,10000;31,1820;41,0;22,60;32,60;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,4166;31,798;41,603;22,70;32,70;42,70</t>
+          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2070;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,2636;22,0;32,0;42,210</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2940;31,563;41,0;22,35;32,35;42,35</t>
+          <t>21,3699;31,646;41,0;22,52;32,52;42,0</t>
         </is>
       </c>
     </row>
@@ -3342,13 +4336,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22190</v>
+        <v>21120</v>
       </c>
       <c r="C4" t="n">
-        <v>4087</v>
+        <v>3570</v>
       </c>
       <c r="D4" t="n">
-        <v>3184</v>
+        <v>3600</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -3366,43 +4360,43 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10920</v>
+        <v>12300</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N4" t="n">
-        <v>15661</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>2885</v>
+        <v>2730</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5093</v>
+        <v>5490</v>
       </c>
       <c r="U4" t="n">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="V4" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -3420,63 +4414,63 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2793</v>
+        <v>2784</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AF4" t="n">
-        <v>3594</v>
+        <v>3875</v>
       </c>
       <c r="AG4" t="n">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22190;31,4087;41,3184;22,120;32,120;42,120</t>
+          <t>21,21120;31,3570;41,3600;22,120;32,120;42,120</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,10920;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,12300;22,0;32,0;42,360</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,15661;31,2885;41,0;22,60;32,60;42,60</t>
+          <t>21,15000;31,2730;41,0;22,90;32,90;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5093;31,937;41,814;22,105;32,105;42,105</t>
+          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2793;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,2784;22,0;32,0;42,315</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,3594;31,661;41,0;22,52;32,52;42,52</t>
+          <t>21,3875;31,676;41,0;22,78;32,78;42,0</t>
         </is>
       </c>
     </row>
@@ -3485,13 +4479,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29511</v>
+        <v>28160</v>
       </c>
       <c r="C5" t="n">
-        <v>5431</v>
+        <v>4760</v>
       </c>
       <c r="D5" t="n">
-        <v>4289</v>
+        <v>4800</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -3509,43 +4503,43 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>14711</v>
+        <v>16400</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N5" t="n">
-        <v>20829</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>3833</v>
+        <v>3640</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5459</v>
+        <v>5881</v>
       </c>
       <c r="U5" t="n">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="V5" t="n">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -3563,63 +4557,63 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>3044</v>
+        <v>3028</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="AF5" t="n">
-        <v>3853</v>
+        <v>4151</v>
       </c>
       <c r="AG5" t="n">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29511;31,5431;41,4289;22,160;32,160;42,160</t>
+          <t>21,28160;31,4760;41,4800;22,160;32,160;42,160</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,14711;22,160;32,160;42,160</t>
+          <t>21,0;31,0;41,16400;22,0;32,0;42,480</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,20829;31,3833;41,0;22,80;32,80;42,80</t>
+          <t>21,20000;31,3640;41,0;22,120;32,120;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5459;31,1004;41,887;22,140;32,140;42,140</t>
+          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3044;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,3028;22,0;32,0;42,420</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,3853;31,708;41,0;22,70;32,70;42,70</t>
+          <t>21,4151;31,724;41,0;22,105;32,105;42,0</t>
         </is>
       </c>
     </row>
@@ -3628,13 +4622,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36802</v>
+        <v>35200</v>
       </c>
       <c r="C6" t="n">
-        <v>6767</v>
+        <v>5950</v>
       </c>
       <c r="D6" t="n">
-        <v>5416</v>
+        <v>6000</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -3652,43 +4646,43 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18576</v>
+        <v>20500</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N6" t="n">
-        <v>25975</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>4776</v>
+        <v>4550</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5849</v>
+        <v>6161</v>
       </c>
       <c r="U6" t="n">
         <v>1075</v>
       </c>
       <c r="V6" t="n">
-        <v>966</v>
+        <v>932</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -3706,63 +4700,63 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>3313</v>
+        <v>3197</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="AF6" t="n">
-        <v>4128</v>
+        <v>4348</v>
       </c>
       <c r="AG6" t="n">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,36802;31,6767;41,5416;22,200;32,200;42,200</t>
+          <t>21,35200;31,5950;41,6000;22,200;32,200;42,200</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,18576;22,200;32,200;42,200</t>
+          <t>21,0;31,0;41,20500;22,0;32,0;42,600</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,25975;31,4776;41,0;22,100;32,100;42,100</t>
+          <t>21,25000;31,4550;41,0;22,150;32,150;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,5849;31,1075;41,966;22,175;32,175;42,175</t>
+          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3313;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,3197;22,0;32,0;42,525</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,4128;31,759;41,0;22,87;32,87;42,87</t>
+          <t>21,4348;31,758;41,0;22,131;32,131;42,0</t>
         </is>
       </c>
     </row>
@@ -3771,13 +4765,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42901</v>
+        <v>42240</v>
       </c>
       <c r="C7" t="n">
-        <v>7885</v>
+        <v>7140</v>
       </c>
       <c r="D7" t="n">
-        <v>7028</v>
+        <v>7200</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -3795,43 +4789,43 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24102</v>
+        <v>24600</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N7" t="n">
-        <v>30280</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>5565</v>
+        <v>5460</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6265</v>
+        <v>6454</v>
       </c>
       <c r="U7" t="n">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="V7" t="n">
-        <v>1050</v>
+        <v>984</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -3849,63 +4843,63 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>3603</v>
+        <v>3375</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>630</v>
       </c>
       <c r="AF7" t="n">
-        <v>4421</v>
+        <v>4555</v>
       </c>
       <c r="AG7" t="n">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,42901;31,7885;41,7028;22,240;32,240;42,240</t>
+          <t>21,42240;31,7140;41,7200;22,240;32,240;42,240</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,24102;22,240;32,240;42,240</t>
+          <t>21,0;31,0;41,24600;22,0;32,0;42,720</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,30280;31,5565;41,0;22,120;32,120;42,120</t>
+          <t>21,30000;31,5460;41,0;22,180;32,180;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6265;31,1151;41,1050;22,210;32,210;42,210</t>
+          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3603;22,210;32,210;42,210</t>
+          <t>21,0;31,0;41,3375;22,0;32,0;42,630</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,4421;31,812;41,0;22,105;32,105;42,105</t>
+          <t>21,4555;31,794;41,0;22,157;32,157;42,0</t>
         </is>
       </c>
     </row>
@@ -3914,13 +4908,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48981</v>
+        <v>49280</v>
       </c>
       <c r="C8" t="n">
-        <v>8998</v>
+        <v>8330</v>
       </c>
       <c r="D8" t="n">
-        <v>8651</v>
+        <v>8400</v>
       </c>
       <c r="E8" t="n">
         <v>280</v>
@@ -3938,43 +4932,43 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29670</v>
+        <v>28700</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>840</v>
       </c>
       <c r="N8" t="n">
-        <v>34571</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>6351</v>
+        <v>6370</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6707</v>
+        <v>6762</v>
       </c>
       <c r="U8" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
       <c r="V8" t="n">
-        <v>1141</v>
+        <v>1038</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -3992,63 +4986,63 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>3913</v>
+        <v>3561</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>735</v>
       </c>
       <c r="AF8" t="n">
-        <v>4733</v>
+        <v>4772</v>
       </c>
       <c r="AG8" t="n">
-        <v>869</v>
+        <v>832</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,48981;31,8998;41,8651;22,280;32,280;42,280</t>
+          <t>21,49280;31,8330;41,8400;22,280;32,280;42,280</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,29670;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,28700;22,0;32,0;42,840</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,34571;31,6351;41,0;22,140;32,140;42,140</t>
+          <t>21,35000;31,6370;41,0;22,210;32,210;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6707;31,1232;41,1141;22,245;32,245;42,245</t>
+          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3913;22,245;32,245;42,245</t>
+          <t>21,0;31,0;41,3561;22,0;32,0;42,735</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,4733;31,869;41,0;22,122;32,122;42,122</t>
+          <t>21,4772;31,832;41,0;22,183;32,183;42,0</t>
         </is>
       </c>
     </row>
@@ -4057,13 +5051,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>55526</v>
+        <v>56320</v>
       </c>
       <c r="C9" t="n">
-        <v>10196</v>
+        <v>9520</v>
       </c>
       <c r="D9" t="n">
-        <v>10091</v>
+        <v>9600</v>
       </c>
       <c r="E9" t="n">
         <v>315</v>
@@ -4081,43 +5075,43 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>34609</v>
+        <v>32800</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="N9" t="n">
-        <v>39190</v>
+        <v>40000</v>
       </c>
       <c r="O9" t="n">
-        <v>7196</v>
+        <v>7280</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7450</v>
+        <v>7353</v>
       </c>
       <c r="U9" t="n">
-        <v>1368</v>
+        <v>1283</v>
       </c>
       <c r="V9" t="n">
-        <v>1293</v>
+        <v>1144</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -4135,63 +5129,63 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>4437</v>
+        <v>3925</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>840</v>
       </c>
       <c r="AF9" t="n">
-        <v>5258</v>
+        <v>5189</v>
       </c>
       <c r="AG9" t="n">
-        <v>965</v>
+        <v>905</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,55526;31,10196;41,10091;22,315;32,315;42,315</t>
+          <t>21,56320;31,9520;41,9600;22,315;32,315;42,315</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,34609;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,32800;22,0;32,0;42,945</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,39190;31,7196;41,0;22,157;32,157;42,157</t>
+          <t>21,40000;31,7280;41,0;22,236;32,236;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7450;31,1368;41,1293;22,280;32,280;42,280</t>
+          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,4437;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,3925;22,0;32,0;42,840</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,5258;31,965;41,0;22,140;32,140;42,140</t>
+          <t>21,5189;31,905;41,0;22,210;32,210;42,0</t>
         </is>
       </c>
     </row>
@@ -4200,13 +5194,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>63024</v>
+        <v>63360</v>
       </c>
       <c r="C10" t="n">
-        <v>11573</v>
+        <v>10710</v>
       </c>
       <c r="D10" t="n">
-        <v>11114</v>
+        <v>10800</v>
       </c>
       <c r="E10" t="n">
         <v>335</v>
@@ -4224,43 +5218,43 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38118</v>
+        <v>36900</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>1005</v>
       </c>
       <c r="N10" t="n">
-        <v>44482</v>
+        <v>45000</v>
       </c>
       <c r="O10" t="n">
-        <v>8168</v>
+        <v>8190</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8066</v>
+        <v>7961</v>
       </c>
       <c r="U10" t="n">
-        <v>1481</v>
+        <v>1389</v>
       </c>
       <c r="V10" t="n">
-        <v>1418</v>
+        <v>1254</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -4278,63 +5272,63 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>4864</v>
+        <v>4302</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="AF10" t="n">
-        <v>5693</v>
+        <v>5619</v>
       </c>
       <c r="AG10" t="n">
-        <v>1045</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,63024;31,11573;41,11114;22,335;32,335;42,335</t>
+          <t>21,63360;31,10710;41,10800;22,335;32,335;42,335</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,38118;22,335;32,335;42,335</t>
+          <t>21,0;31,0;41,36900;22,0;32,0;42,1005</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,44482;31,8168;41,0;22,167;32,167;42,167</t>
+          <t>21,45000;31,8190;41,0;22,251;32,251;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,8066;31,1481;41,1418;22,315;32,315;42,315</t>
+          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,4864;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,4302;22,0;32,0;42,945</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,5693;31,1045;41,0;22,157;32,157;42,157</t>
+          <t>21,5619;31,980;41,0;22,236;32,236;42,0</t>
         </is>
       </c>
     </row>
@@ -4346,10 +5340,10 @@
         <v>70400</v>
       </c>
       <c r="C11" t="n">
-        <v>12928</v>
+        <v>11900</v>
       </c>
       <c r="D11" t="n">
-        <v>12266</v>
+        <v>12000</v>
       </c>
       <c r="E11" t="n">
         <v>350</v>
@@ -4367,43 +5361,43 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42066</v>
+        <v>41000</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="N11" t="n">
-        <v>49688</v>
+        <v>50000</v>
       </c>
       <c r="O11" t="n">
-        <v>9124</v>
+        <v>9100</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8696</v>
+        <v>8582</v>
       </c>
       <c r="U11" t="n">
-        <v>1597</v>
+        <v>1497</v>
       </c>
       <c r="V11" t="n">
-        <v>1546</v>
+        <v>1368</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -4421,63 +5415,63 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>5305</v>
+        <v>4691</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="AF11" t="n">
-        <v>6138</v>
+        <v>6057</v>
       </c>
       <c r="AG11" t="n">
-        <v>1127</v>
+        <v>1056</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,70400;31,12928;41,12266;22,350;32,350;42,350</t>
+          <t>21,70400;31,11900;41,12000;22,350;32,350;42,350</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,42066;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,41000;22,0;32,0;42,1050</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,49688;31,9124;41,0;22,175;32,175;42,175</t>
+          <t>21,50000;31,9100;41,0;22,262;32,262;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8696;31,1597;41,1546;22,350;32,350;42,350</t>
+          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,5305;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,4691;22,0;32,0;42,1050</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,6138;31,1127;41,0;22,175;32,175;42,175</t>
+          <t>21,6057;31,1056;41,0;22,262;32,262;42,0</t>
         </is>
       </c>
     </row>
@@ -4558,7 +5552,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
         <v>51</v>
@@ -4567,16 +5561,16 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,454;31,83;41,79</t>
+          <t>21,454;31,83;41,77</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,51;31,9;41,9</t>
+          <t>21,51;31,9;41,8</t>
         </is>
       </c>
     </row>
@@ -4591,7 +5585,7 @@
         <v>357</v>
       </c>
       <c r="D3" t="n">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E3" t="n">
         <v>219</v>
@@ -4600,16 +5594,16 @@
         <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1948;31,357;41,339</t>
+          <t>21,1948;31,357;41,330</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,219;31,40;41,39</t>
+          <t>21,219;31,40;41,38</t>
         </is>
       </c>
     </row>
@@ -4624,7 +5618,7 @@
         <v>838</v>
       </c>
       <c r="D4" t="n">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="E4" t="n">
         <v>514</v>
@@ -4633,16 +5627,16 @@
         <v>94</v>
       </c>
       <c r="G4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,4564;31,838;41,795</t>
+          <t>21,4564;31,838;41,775</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,514;31,94;41,91</t>
+          <t>21,514;31,94;41,89</t>
         </is>
       </c>
     </row>
@@ -4657,7 +5651,7 @@
         <v>1533</v>
       </c>
       <c r="D5" t="n">
-        <v>1455</v>
+        <v>1418</v>
       </c>
       <c r="E5" t="n">
         <v>940</v>
@@ -4666,16 +5660,16 @@
         <v>172</v>
       </c>
       <c r="G5" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,8352;31,1533;41,1455</t>
+          <t>21,8352;31,1533;41,1418</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,940;31,172;41,167</t>
+          <t>21,940;31,172;41,163</t>
         </is>
       </c>
     </row>
@@ -4690,7 +5684,7 @@
         <v>2450</v>
       </c>
       <c r="D6" t="n">
-        <v>2325</v>
+        <v>2266</v>
       </c>
       <c r="E6" t="n">
         <v>1502</v>
@@ -4699,16 +5693,16 @@
         <v>275</v>
       </c>
       <c r="G6" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,13345;31,2450;41,2325</t>
+          <t>21,13345;31,2450;41,2266</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,1502;31,275;41,267</t>
+          <t>21,1502;31,275;41,260</t>
         </is>
       </c>
     </row>
@@ -4723,7 +5717,7 @@
         <v>3593</v>
       </c>
       <c r="D7" t="n">
-        <v>3409</v>
+        <v>3324</v>
       </c>
       <c r="E7" t="n">
         <v>2203</v>
@@ -4732,16 +5726,16 @@
         <v>404</v>
       </c>
       <c r="G7" t="n">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,19570;31,3593;41,3409</t>
+          <t>21,19570;31,3593;41,3324</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,2203;31,404;41,392</t>
+          <t>21,2203;31,404;41,382</t>
         </is>
       </c>
     </row>
@@ -4756,7 +5750,7 @@
         <v>4967</v>
       </c>
       <c r="D8" t="n">
-        <v>4713</v>
+        <v>4594</v>
       </c>
       <c r="E8" t="n">
         <v>3046</v>
@@ -4765,16 +5759,16 @@
         <v>559</v>
       </c>
       <c r="G8" t="n">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,27051;31,4967;41,4713</t>
+          <t>21,27051;31,4967;41,4594</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,3046;31,559;41,541</t>
+          <t>21,3046;31,559;41,528</t>
         </is>
       </c>
     </row>
@@ -4789,7 +5783,7 @@
         <v>6575</v>
       </c>
       <c r="D9" t="n">
-        <v>6238</v>
+        <v>6082</v>
       </c>
       <c r="E9" t="n">
         <v>4032</v>
@@ -4798,16 +5792,16 @@
         <v>740</v>
       </c>
       <c r="G9" t="n">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,35807;31,6575;41,6238</t>
+          <t>21,35807;31,6575;41,6082</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,4032;31,740;41,717</t>
+          <t>21,4032;31,740;41,699</t>
         </is>
       </c>
     </row>
@@ -4822,7 +5816,7 @@
         <v>8420</v>
       </c>
       <c r="D10" t="n">
-        <v>7989</v>
+        <v>7788</v>
       </c>
       <c r="E10" t="n">
         <v>5164</v>
@@ -4831,16 +5825,16 @@
         <v>948</v>
       </c>
       <c r="G10" t="n">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,45855;31,8420;41,7989</t>
+          <t>21,45855;31,8420;41,7788</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,5164;31,948;41,918</t>
+          <t>21,5164;31,948;41,895</t>
         </is>
       </c>
     </row>
@@ -4855,7 +5849,7 @@
         <v>10506</v>
       </c>
       <c r="D11" t="n">
-        <v>9968</v>
+        <v>9717</v>
       </c>
       <c r="E11" t="n">
         <v>6442</v>
@@ -4864,16 +5858,16 @@
         <v>1183</v>
       </c>
       <c r="G11" t="n">
-        <v>1146</v>
+        <v>1117</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,57211;31,10506;41,9968</t>
+          <t>21,57211;31,10506;41,9717</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,6442;31,1183;41,1146</t>
+          <t>21,6442;31,1183;41,1117</t>
         </is>
       </c>
     </row>
@@ -4888,7 +5882,7 @@
         <v>12834</v>
       </c>
       <c r="D12" t="n">
-        <v>12177</v>
+        <v>11870</v>
       </c>
       <c r="E12" t="n">
         <v>7870</v>
@@ -4897,16 +5891,16 @@
         <v>1445</v>
       </c>
       <c r="G12" t="n">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,69888;31,12834;41,12177</t>
+          <t>21,69888;31,12834;41,11870</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,7870;31,1445;41,1399</t>
+          <t>21,7870;31,1445;41,1364</t>
         </is>
       </c>
     </row>
@@ -4921,7 +5915,7 @@
         <v>15407</v>
       </c>
       <c r="D13" t="n">
-        <v>14618</v>
+        <v>14250</v>
       </c>
       <c r="E13" t="n">
         <v>9448</v>
@@ -4930,16 +5924,16 @@
         <v>1735</v>
       </c>
       <c r="G13" t="n">
-        <v>1680</v>
+        <v>1638</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,83900;31,15407;41,14618</t>
+          <t>21,83900;31,15407;41,14250</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,9448;31,1735;41,1680</t>
+          <t>21,9448;31,1735;41,1638</t>
         </is>
       </c>
     </row>
@@ -4954,7 +5948,7 @@
         <v>18227</v>
       </c>
       <c r="D14" t="n">
-        <v>17294</v>
+        <v>16859</v>
       </c>
       <c r="E14" t="n">
         <v>11178</v>
@@ -4963,16 +5957,16 @@
         <v>2052</v>
       </c>
       <c r="G14" t="n">
-        <v>1988</v>
+        <v>1938</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,99257;31,18227;41,17294</t>
+          <t>21,99257;31,18227;41,16859</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,11178;31,2052;41,1988</t>
+          <t>21,11178;31,2052;41,1938</t>
         </is>
       </c>
     </row>
@@ -4987,7 +5981,7 @@
         <v>21296</v>
       </c>
       <c r="D15" t="n">
-        <v>20206</v>
+        <v>19698</v>
       </c>
       <c r="E15" t="n">
         <v>13060</v>
@@ -4996,16 +5990,16 @@
         <v>2398</v>
       </c>
       <c r="G15" t="n">
-        <v>2323</v>
+        <v>2264</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,115971;31,21296;41,20206</t>
+          <t>21,115971;31,21296;41,19698</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,13060;31,2398;41,2323</t>
+          <t>21,13060;31,2398;41,2264</t>
         </is>
       </c>
     </row>
@@ -5020,7 +6014,7 @@
         <v>24616</v>
       </c>
       <c r="D16" t="n">
-        <v>23356</v>
+        <v>22769</v>
       </c>
       <c r="E16" t="n">
         <v>15096</v>
@@ -5029,16 +6023,16 @@
         <v>2772</v>
       </c>
       <c r="G16" t="n">
-        <v>2685</v>
+        <v>2617</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,134052;31,24616;41,23356</t>
+          <t>21,134052;31,24616;41,22769</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,15096;31,2772;41,2685</t>
+          <t>21,15096;31,2772;41,2617</t>
         </is>
       </c>
     </row>
@@ -5053,7 +6047,7 @@
         <v>28189</v>
       </c>
       <c r="D17" t="n">
-        <v>26746</v>
+        <v>26074</v>
       </c>
       <c r="E17" t="n">
         <v>17287</v>
@@ -5062,16 +6056,16 @@
         <v>3174</v>
       </c>
       <c r="G17" t="n">
-        <v>3074</v>
+        <v>2997</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,153509;31,28189;41,26746</t>
+          <t>21,153509;31,28189;41,26074</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,17287;31,3174;41,3074</t>
+          <t>21,17287;31,3174;41,2997</t>
         </is>
       </c>
     </row>
@@ -5086,7 +6080,7 @@
         <v>32017</v>
       </c>
       <c r="D18" t="n">
-        <v>30378</v>
+        <v>29614</v>
       </c>
       <c r="E18" t="n">
         <v>19634</v>
@@ -5095,16 +6089,16 @@
         <v>3605</v>
       </c>
       <c r="G18" t="n">
-        <v>3492</v>
+        <v>3404</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21,174351;31,32017;41,30378</t>
+          <t>21,174351;31,32017;41,29614</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>21,19634;31,3605;41,3492</t>
+          <t>21,19634;31,3605;41,3404</t>
         </is>
       </c>
     </row>
@@ -5119,7 +6113,7 @@
         <v>36100</v>
       </c>
       <c r="D19" t="n">
-        <v>34252</v>
+        <v>33391</v>
       </c>
       <c r="E19" t="n">
         <v>22138</v>
@@ -5128,16 +6122,16 @@
         <v>4065</v>
       </c>
       <c r="G19" t="n">
-        <v>3937</v>
+        <v>3838</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>21,196587;31,36100;41,34252</t>
+          <t>21,196587;31,36100;41,33391</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21,22138;31,4065;41,3937</t>
+          <t>21,22138;31,4065;41,3838</t>
         </is>
       </c>
     </row>
@@ -5152,7 +6146,7 @@
         <v>40441</v>
       </c>
       <c r="D20" t="n">
-        <v>38371</v>
+        <v>37405</v>
       </c>
       <c r="E20" t="n">
         <v>24800</v>
@@ -5161,16 +6155,16 @@
         <v>4554</v>
       </c>
       <c r="G20" t="n">
-        <v>4411</v>
+        <v>4300</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>21,220224;31,40441;41,38371</t>
+          <t>21,220224;31,40441;41,37405</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21,24800;31,4554;41,4411</t>
+          <t>21,24800;31,4554;41,4300</t>
         </is>
       </c>
     </row>
@@ -5185,7 +6179,7 @@
         <v>45040</v>
       </c>
       <c r="D21" t="n">
-        <v>42735</v>
+        <v>41660</v>
       </c>
       <c r="E21" t="n">
         <v>27621</v>
@@ -5194,16 +6188,16 @@
         <v>5072</v>
       </c>
       <c r="G21" t="n">
-        <v>4913</v>
+        <v>4789</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21,245271;31,45040;41,42735</t>
+          <t>21,245271;31,45040;41,41660</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>21,27621;31,5072;41,4913</t>
+          <t>21,27621;31,5072;41,4789</t>
         </is>
       </c>
     </row>
@@ -5218,7 +6212,7 @@
         <v>49900</v>
       </c>
       <c r="D22" t="n">
-        <v>47345</v>
+        <v>46155</v>
       </c>
       <c r="E22" t="n">
         <v>30601</v>
@@ -5227,16 +6221,16 @@
         <v>5619</v>
       </c>
       <c r="G22" t="n">
-        <v>5443</v>
+        <v>5306</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>21,271733;31,49900;41,47345</t>
+          <t>21,271733;31,49900;41,46155</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>21,30601;31,5619;41,5443</t>
+          <t>21,30601;31,5619;41,5306</t>
         </is>
       </c>
     </row>
@@ -5251,7 +6245,7 @@
         <v>55021</v>
       </c>
       <c r="D23" t="n">
-        <v>52204</v>
+        <v>50891</v>
       </c>
       <c r="E23" t="n">
         <v>33742</v>
@@ -5260,16 +6254,16 @@
         <v>6196</v>
       </c>
       <c r="G23" t="n">
-        <v>6001</v>
+        <v>5850</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21,299620;31,55021;41,52204</t>
+          <t>21,299620;31,55021;41,50891</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>21,33742;31,6196;41,6001</t>
+          <t>21,33742;31,6196;41,5850</t>
         </is>
       </c>
     </row>
@@ -5284,7 +6278,7 @@
         <v>60404</v>
       </c>
       <c r="D24" t="n">
-        <v>57312</v>
+        <v>55871</v>
       </c>
       <c r="E24" t="n">
         <v>37043</v>
@@ -5293,16 +6287,16 @@
         <v>6802</v>
       </c>
       <c r="G24" t="n">
-        <v>6589</v>
+        <v>6423</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21,328936;31,60404;41,57312</t>
+          <t>21,328936;31,60404;41,55871</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>21,37043;31,6802;41,6589</t>
+          <t>21,37043;31,6802;41,6423</t>
         </is>
       </c>
     </row>
@@ -5317,7 +6311,7 @@
         <v>66051</v>
       </c>
       <c r="D25" t="n">
-        <v>62670</v>
+        <v>61094</v>
       </c>
       <c r="E25" t="n">
         <v>40506</v>
@@ -5326,16 +6320,16 @@
         <v>7438</v>
       </c>
       <c r="G25" t="n">
-        <v>7205</v>
+        <v>7023</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>21,359688;31,66051;41,62670</t>
+          <t>21,359688;31,66051;41,61094</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>21,40506;31,7438;41,7205</t>
+          <t>21,40506;31,7438;41,7023</t>
         </is>
       </c>
     </row>
@@ -5350,7 +6344,7 @@
         <v>71963</v>
       </c>
       <c r="D26" t="n">
-        <v>68280</v>
+        <v>66562</v>
       </c>
       <c r="E26" t="n">
         <v>44132</v>
@@ -5359,16 +6353,16 @@
         <v>8104</v>
       </c>
       <c r="G26" t="n">
-        <v>7849</v>
+        <v>7652</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>21,391883;31,71963;41,68280</t>
+          <t>21,391883;31,71963;41,66562</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>21,44132;31,8104;41,7849</t>
+          <t>21,44132;31,8104;41,7652</t>
         </is>
       </c>
     </row>
@@ -5383,7 +6377,7 @@
         <v>78142</v>
       </c>
       <c r="D27" t="n">
-        <v>74142</v>
+        <v>72277</v>
       </c>
       <c r="E27" t="n">
         <v>47921</v>
@@ -5392,16 +6386,16 @@
         <v>8800</v>
       </c>
       <c r="G27" t="n">
-        <v>8523</v>
+        <v>8309</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>21,425527;31,78142;41,74142</t>
+          <t>21,425527;31,78142;41,72277</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>21,47921;31,8800;41,8523</t>
+          <t>21,47921;31,8800;41,8309</t>
         </is>
       </c>
     </row>
@@ -5416,7 +6410,7 @@
         <v>84587</v>
       </c>
       <c r="D28" t="n">
-        <v>80257</v>
+        <v>78238</v>
       </c>
       <c r="E28" t="n">
         <v>51873</v>
@@ -5425,16 +6419,16 @@
         <v>9525</v>
       </c>
       <c r="G28" t="n">
-        <v>9226</v>
+        <v>8994</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>21,460624;31,84587;41,80257</t>
+          <t>21,460624;31,84587;41,78238</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>21,51873;31,9525;41,9226</t>
+          <t>21,51873;31,9525;41,8994</t>
         </is>
       </c>
     </row>
@@ -5449,7 +6443,7 @@
         <v>91300</v>
       </c>
       <c r="D29" t="n">
-        <v>86627</v>
+        <v>84448</v>
       </c>
       <c r="E29" t="n">
         <v>55990</v>
@@ -5458,16 +6452,16 @@
         <v>10281</v>
       </c>
       <c r="G29" t="n">
-        <v>9959</v>
+        <v>9708</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21,497181;31,91300;41,86627</t>
+          <t>21,497181;31,91300;41,84448</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>21,55990;31,10281;41,9959</t>
+          <t>21,55990;31,10281;41,9708</t>
         </is>
       </c>
     </row>
@@ -5482,7 +6476,7 @@
         <v>98282</v>
       </c>
       <c r="D30" t="n">
-        <v>93252</v>
+        <v>90906</v>
       </c>
       <c r="E30" t="n">
         <v>60272</v>
@@ -5491,16 +6485,16 @@
         <v>11068</v>
       </c>
       <c r="G30" t="n">
-        <v>10720</v>
+        <v>10451</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>21,535203;31,98282;41,93252</t>
+          <t>21,535203;31,98282;41,90906</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21,60272;31,11068;41,10720</t>
+          <t>21,60272;31,11068;41,10451</t>
         </is>
       </c>
     </row>
@@ -5515,7 +6509,7 @@
         <v>105534</v>
       </c>
       <c r="D31" t="n">
-        <v>100133</v>
+        <v>97614</v>
       </c>
       <c r="E31" t="n">
         <v>64720</v>
@@ -5524,16 +6518,16 @@
         <v>11884</v>
       </c>
       <c r="G31" t="n">
-        <v>11511</v>
+        <v>11222</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>21,574695;31,105534;41,100133</t>
+          <t>21,574695;31,105534;41,97614</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>21,64720;31,11884;41,11511</t>
+          <t>21,64720;31,11884;41,11222</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/8.xlsx
+++ b/opm_hero_property/heroes/8.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -876,7 +877,7 @@
         <v>11122</v>
       </c>
       <c r="D4" t="n">
-        <v>11122</v>
+        <v>11701</v>
       </c>
       <c r="E4" t="n">
         <v>241</v>
@@ -983,7 +984,7 @@
         <v>12394</v>
       </c>
       <c r="D5" t="n">
-        <v>12394</v>
+        <v>13630</v>
       </c>
       <c r="E5" t="n">
         <v>361</v>
@@ -1090,7 +1091,7 @@
         <v>13891</v>
       </c>
       <c r="D6" t="n">
-        <v>13891</v>
+        <v>15899</v>
       </c>
       <c r="E6" t="n">
         <v>494</v>
@@ -1197,7 +1198,7 @@
         <v>15612</v>
       </c>
       <c r="D7" t="n">
-        <v>15612</v>
+        <v>20634</v>
       </c>
       <c r="E7" t="n">
         <v>927</v>
@@ -1304,7 +1305,7 @@
         <v>17557</v>
       </c>
       <c r="D8" t="n">
-        <v>17557</v>
+        <v>27185</v>
       </c>
       <c r="E8" t="n">
         <v>1373</v>
@@ -1411,7 +1412,7 @@
         <v>19801</v>
       </c>
       <c r="D9" t="n">
-        <v>19801</v>
+        <v>36005</v>
       </c>
       <c r="E9" t="n">
         <v>1813</v>
@@ -1518,7 +1519,7 @@
         <v>20999</v>
       </c>
       <c r="D10" t="n">
-        <v>20999</v>
+        <v>43349</v>
       </c>
       <c r="E10" t="n">
         <v>2143</v>
@@ -1625,7 +1626,7 @@
         <v>22420</v>
       </c>
       <c r="D11" t="n">
-        <v>22420</v>
+        <v>52367</v>
       </c>
       <c r="E11" t="n">
         <v>2500</v>
@@ -1732,7 +1733,7 @@
         <v>25413</v>
       </c>
       <c r="D12" t="n">
-        <v>25413</v>
+        <v>68418</v>
       </c>
       <c r="E12" t="n">
         <v>3077</v>
@@ -1839,7 +1840,7 @@
         <v>26011</v>
       </c>
       <c r="D13" t="n">
-        <v>26011</v>
+        <v>70687</v>
       </c>
       <c r="E13" t="n">
         <v>3461</v>
@@ -1946,7 +1947,7 @@
         <v>26610</v>
       </c>
       <c r="D14" t="n">
-        <v>26610</v>
+        <v>72955</v>
       </c>
       <c r="E14" t="n">
         <v>3846</v>
@@ -2053,7 +2054,7 @@
         <v>27209</v>
       </c>
       <c r="D15" t="n">
-        <v>27209</v>
+        <v>75224</v>
       </c>
       <c r="E15" t="n">
         <v>4230</v>
@@ -2160,7 +2161,7 @@
         <v>27807</v>
       </c>
       <c r="D16" t="n">
-        <v>27807</v>
+        <v>77493</v>
       </c>
       <c r="E16" t="n">
         <v>4615</v>
@@ -2267,7 +2268,7 @@
         <v>28406</v>
       </c>
       <c r="D17" t="n">
-        <v>28406</v>
+        <v>79761</v>
       </c>
       <c r="E17" t="n">
         <v>4999</v>
@@ -6534,4 +6535,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29249.8315912</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5310.4432396</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2175.4586636</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41087.6400014</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7571.4212808</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3409.46578</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>73864.96014560001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13248.7029</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7454.269528</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>81058.37661280001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14469.1538</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8672.690415999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,4155.262664</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,5115.0623504;31,932.838175;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>80197.428552</v>
+      </c>
+      <c r="U6" t="n">
+        <v>14776.0777</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9338.484664</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,8310.525328</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,10230.1247008;31,1865.67635;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>269321.9551946</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45890.136352</v>
+      </c>
+      <c r="V7" t="n">
+        <v>32983.0152024</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>240448.9011518</v>
+      </c>
+      <c r="U8" t="n">
+        <v>43357.389184</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31324.6043808</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,4395.6976712</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,5523.0056414;31,1006.277944;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>283601.7295386</v>
+      </c>
+      <c r="U9" t="n">
+        <v>49914.577472</v>
+      </c>
+      <c r="V9" t="n">
+        <v>37504.5268464</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,21978.488356</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,27615.028207;31,5031.38972;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>295805.1945046</v>
+      </c>
+      <c r="U10" t="n">
+        <v>51198.283392</v>
+      </c>
+      <c r="V10" t="n">
+        <v>38490.1857504</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,21978.488356</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,27615.028207;31,5031.38972;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>345823.6876776</v>
+      </c>
+      <c r="U11" t="n">
+        <v>58913.379032</v>
+      </c>
+      <c r="V11" t="n">
+        <v>45845.4667434</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,43587.354623</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,54567.58260156;31,9940.8273776;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>308008.6594706</v>
+      </c>
+      <c r="U12" t="n">
+        <v>52481.98931200001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>39475.8446544</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,21978.488356</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,27615.028207;31,5031.38972;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>446477.3213143999</v>
+      </c>
+      <c r="U13" t="n">
+        <v>76721.002792</v>
+      </c>
+      <c r="V13" t="n">
+        <v>64289.354332</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,27582.816648</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,34703.6033712;31,6324.893772;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>454562.566508</v>
+      </c>
+      <c r="U14" t="n">
+        <v>78103.20140800001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>65655.066368</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,32179.952756</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,40487.5372664;31,7379.042734;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1022439.5379282</v>
+      </c>
+      <c r="U15" t="n">
+        <v>180858.8710502</v>
+      </c>
+      <c r="V15" t="n">
+        <v>172453.41945</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,42662.95555</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,53671.30019631999;31,9791.56430704;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5190245.4230954</v>
+      </c>
+      <c r="U16" t="n">
+        <v>903958.9427992001</v>
+      </c>
+      <c r="V16" t="n">
+        <v>833770.9850828</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,105059.34024349999</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,138730;31,25394;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8355044.508445701</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1456065.9107368</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1335245.5922896</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,114229</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,138730;31,25394;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224762.3830396</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43896.33409275</v>
+      </c>
+      <c r="V18" t="n">
+        <v>28092.864519</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,2742.0174466</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,4001.52765552;31,709.44344282;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>302986.7948976</v>
+      </c>
+      <c r="U19" t="n">
+        <v>56169.871588</v>
+      </c>
+      <c r="V19" t="n">
+        <v>39246.8342966</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,3276.4866986</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,4810.81562128;31,859.0657776;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>394018.7078739</v>
+      </c>
+      <c r="U20" t="n">
+        <v>70053.67353245</v>
+      </c>
+      <c r="V20" t="n">
+        <v>55834.6104283</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,5432.485290500001</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,7867.627542420001;31,1405.8247147299999;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>456900.2857122</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81945.40973700001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>66583.09919925001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,7041.90491175</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,10112.258178439999;31,1813.9604686;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>525001.8536</v>
+      </c>
+      <c r="U22" t="n">
+        <v>99178.98511359999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>81781.43050239999</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,8531.906390799999</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,12084.334880000002;31,2171.7992077999997;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>665848.7838133</v>
+      </c>
+      <c r="U23" t="n">
+        <v>134518.0290104</v>
+      </c>
+      <c r="V23" t="n">
+        <v>112725.1113484</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,12055.5833555</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,16049;31,2890;41,0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/8.xlsx
+++ b/opm_hero_property/heroes/8.xlsx
@@ -6799,31 +6799,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29249.8315912</v>
+        <v>7321.1336</v>
       </c>
       <c r="U2" t="n">
-        <v>5310.4432396</v>
+        <v>1613.3979</v>
       </c>
       <c r="V2" t="n">
-        <v>2175.4586636</v>
+        <v>610.9739</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="n">
-        <v>1650</v>
+        <v>240</v>
       </c>
       <c r="AB2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -6910,31 +6910,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41087.6400014</v>
+        <v>19490.1742</v>
       </c>
       <c r="U3" t="n">
-        <v>7571.4212808</v>
+        <v>4040.9442</v>
       </c>
       <c r="V3" t="n">
-        <v>3409.46578</v>
+        <v>1886.845</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>777</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="AA3" t="n">
-        <v>1650</v>
+        <v>480</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7021,31 +7021,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>73864.96014560001</v>
+        <v>54542.1168</v>
       </c>
       <c r="U4" t="n">
-        <v>13248.7029</v>
+        <v>10424.725</v>
       </c>
       <c r="V4" t="n">
-        <v>7454.269528</v>
+        <v>6083.222</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AA4" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7132,31 +7132,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>81058.37661280001</v>
+        <v>61735.5332672</v>
       </c>
       <c r="U5" t="n">
-        <v>14469.1538</v>
+        <v>11645.1759</v>
       </c>
       <c r="V5" t="n">
-        <v>8672.690415999999</v>
+        <v>7301.642888</v>
       </c>
       <c r="W5" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="AA5" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,4155.262664</t>
+          <t>21,0;31,0;41,4155</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,5115.0623504;31,932.838175;41,0.0</t>
+          <t>21,5115;31,932;41,0</t>
         </is>
       </c>
     </row>
@@ -7251,31 +7251,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>80197.428552</v>
+        <v>69197.428552</v>
       </c>
       <c r="U6" t="n">
-        <v>14776.0777</v>
+        <v>12896.0777</v>
       </c>
       <c r="V6" t="n">
-        <v>9338.484664</v>
+        <v>8538.484664</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,8310.525328</t>
+          <t>21,0;31,0;41,8310</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,10230.1247008;31,1865.67635;41,0.0</t>
+          <t>21,10230;31,1865;41,0</t>
         </is>
       </c>
     </row>
@@ -7370,13 +7370,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>269321.9551946</v>
+        <v>231491.2138</v>
       </c>
       <c r="U7" t="n">
-        <v>45890.136352</v>
+        <v>41910.648</v>
       </c>
       <c r="V7" t="n">
-        <v>32983.0152024</v>
+        <v>29927.4726</v>
       </c>
       <c r="W7" t="n">
         <v>3380</v>
@@ -7391,7 +7391,7 @@
         <v>1650</v>
       </c>
       <c r="AA7" t="n">
-        <v>2610</v>
+        <v>2160</v>
       </c>
       <c r="AB7" t="n">
         <v>930</v>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,4395.6976712</t>
+          <t>21,0;31,0;41,4395</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,5523.0056414;31,1006.277944;41,0.0</t>
+          <t>21,5523;31,1006;41,0</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,21978.488356</t>
+          <t>21,0;31,0;41,21978</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,27615.028207;31,5031.38972;41,0.0</t>
+          <t>21,27615;31,5031;41,0</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,21978.488356</t>
+          <t>21,0;31,0;41,21978</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,27615.028207;31,5031.38972;41,0.0</t>
+          <t>21,27615;31,5031;41,0</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,43587.354623</t>
+          <t>21,0;31,0;41,43587</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,54567.58260156;31,9940.8273776;41,0.0</t>
+          <t>21,54567;31,9940;41,0</t>
         </is>
       </c>
     </row>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,21978.488356</t>
+          <t>21,0;31,0;41,21978</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,27615.028207;31,5031.38972;41,0.0</t>
+          <t>21,27615;31,5031;41,0</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,27582.816648</t>
+          <t>21,0;31,0;41,27582</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,34703.6033712;31,6324.893772;41,0.0</t>
+          <t>21,34703;31,6324;41,0</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,32179.952756</t>
+          <t>21,0;31,0;41,32179</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,40487.5372664;31,7379.042734;41,0.0</t>
+          <t>21,40487;31,7379;41,0</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,42662.95555</t>
+          <t>21,0;31,0;41,42662</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,53671.30019631999;31,9791.56430704;41,0.0</t>
+          <t>21,53671;31,9791;41,0</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,105059.34024349999</t>
+          <t>21,0;31,0;41,105059</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,138730;31,25394;41,0.0</t>
+          <t>21,138730;31,25394;41,0</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,114229</t>
+          <t>21,0;31,0;41,114229</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,138730;31,25394;41,0.0</t>
+          <t>21,138730;31,25394;41,0</t>
         </is>
       </c>
     </row>
@@ -8671,31 +8671,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224762.3830396</v>
+        <v>213762.3830396</v>
       </c>
       <c r="U18" t="n">
-        <v>43896.33409275</v>
+        <v>42016.33409275</v>
       </c>
       <c r="V18" t="n">
-        <v>28092.864519</v>
+        <v>27292.864519</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,2742.0174466</t>
+          <t>21,0;31,0;41,2742</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,4001.52765552;31,709.44344282;41,0.0</t>
+          <t>21,4001;31,709;41,0</t>
         </is>
       </c>
     </row>
@@ -8790,31 +8790,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>302986.7948976</v>
+        <v>279886.7948976</v>
       </c>
       <c r="U19" t="n">
-        <v>56169.871588</v>
+        <v>52221.871588</v>
       </c>
       <c r="V19" t="n">
-        <v>39246.8342966</v>
+        <v>37566.8342966</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1580</v>
+        <v>1040</v>
       </c>
       <c r="AA19" t="n">
-        <v>2310</v>
+        <v>1500</v>
       </c>
       <c r="AB19" t="n">
-        <v>860</v>
+        <v>590</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -8839,12 +8839,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,3276.4866986</t>
+          <t>21,0;31,0;41,3276</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,4810.81562128;31,859.0657776;41,0.0</t>
+          <t>21,4810;31,859;41,0</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,5432.485290500001</t>
+          <t>21,0;31,0;41,5432</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,7867.627542420001;31,1405.8247147299999;41,0.0</t>
+          <t>21,7867;31,1405;41,0</t>
         </is>
       </c>
     </row>
@@ -9077,12 +9077,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,7041.90491175</t>
+          <t>21,0;31,0;41,7041</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,10112.258178439999;31,1813.9604686;41,0.0</t>
+          <t>21,10112;31,1813;41,0</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,8531.906390799999</t>
+          <t>21,0;31,0;41,8531</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,12084.334880000002;31,2171.7992077999997;41,0.0</t>
+          <t>21,12084;31,2171;41,0</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,12055.5833555</t>
+          <t>21,0;31,0;41,12055</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,16049;31,2890;41,0.0</t>
+          <t>21,16049;31,2890;41,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/8.xlsx
+++ b/opm_hero_property/heroes/8.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7321.1336</v>
+        <v>5325122.4230954</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.3979</v>
+        <v>927686.9427992001</v>
       </c>
       <c r="V2" t="n">
-        <v>610.9739</v>
+        <v>855610.9850828</v>
       </c>
       <c r="W2" t="n">
-        <v>600</v>
+        <v>3380</v>
       </c>
       <c r="X2" t="n">
-        <v>160</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>160</v>
+        <v>2630</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>2610</v>
       </c>
       <c r="AB2" t="n">
-        <v>80</v>
+        <v>1910</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,105059</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,138730;31,25394;41,0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>11651873.728745</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1779154.51389098</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>629290.25</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16661674.99263598</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6964,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>19490.1742</v>
+        <v>665848.7838133</v>
       </c>
       <c r="U3" t="n">
-        <v>4040.9442</v>
+        <v>134518.0290104</v>
       </c>
       <c r="V3" t="n">
-        <v>1886.845</v>
+        <v>112725.1113484</v>
       </c>
       <c r="W3" t="n">
-        <v>777</v>
+        <v>3380</v>
       </c>
       <c r="X3" t="n">
-        <v>320</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>320</v>
+        <v>2630</v>
       </c>
       <c r="AA3" t="n">
-        <v>480</v>
+        <v>2610</v>
       </c>
       <c r="AB3" t="n">
-        <v>160</v>
+        <v>1910</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,12055</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,16049;31,2890;41,0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1321164.702965</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>201723.22127336</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>72977.89999999999</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2257942.07423836</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7071,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7089,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7107,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7121,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>54542.1168</v>
+        <v>7321.1336</v>
       </c>
       <c r="U4" t="n">
-        <v>10424.725</v>
+        <v>1613.3979</v>
       </c>
       <c r="V4" t="n">
-        <v>6083.222</v>
+        <v>610.9739</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7174,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19243.829035</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23700.679035</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7206,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7224,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,66 +7256,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>61735.5332672</v>
+        <v>19490.1742</v>
       </c>
       <c r="U5" t="n">
-        <v>11645.1759</v>
+        <v>4040.9442</v>
       </c>
       <c r="V5" t="n">
-        <v>7301.642888</v>
+        <v>1886.845</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,4155</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,5115;31,932;41,0</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49163.29793</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60992.09793</v>
       </c>
     </row>
     <row r="6">
@@ -7212,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7243,21 +7387,21 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>69197.428552</v>
+        <v>54542.1168</v>
       </c>
       <c r="U6" t="n">
-        <v>12896.0777</v>
+        <v>10424.725</v>
       </c>
       <c r="V6" t="n">
-        <v>8538.484664</v>
+        <v>6083.222</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7269,13 +7413,13 @@
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7290,23 +7434,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,8310</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,10230;31,1865;41,0</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>118186.9458</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166386.2458</v>
       </c>
     </row>
     <row r="7">
@@ -7316,31 +7476,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7352,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7366,59 +7526,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>231491.2138</v>
+        <v>61735.5332672</v>
       </c>
       <c r="U7" t="n">
-        <v>41910.648</v>
+        <v>11645.1759</v>
       </c>
       <c r="V7" t="n">
-        <v>29927.4726</v>
+        <v>7301.642888</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4155</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,5115;31,932;41,0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>118186.9458</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>22620.4477832</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>189188.6935832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7427,31 +7619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7463,10 +7655,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7477,66 +7669,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>240448.9011518</v>
+        <v>69197.428552</v>
       </c>
       <c r="U8" t="n">
-        <v>43357.389184</v>
+        <v>12896.0777</v>
       </c>
       <c r="V8" t="n">
-        <v>31324.6043808</v>
+        <v>8538.484664</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,4395</t>
+          <t>21,0;31,0;41,8310</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,5523;31,1006;41,0</t>
-        </is>
+          <t>21,10230;31,1865;41,0</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>118186.9458</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>584.5101336000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>45240.8955664</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>212393.6515</v>
       </c>
     </row>
     <row r="9">
@@ -7561,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7570,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7592,21 +7808,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>283601.7295386</v>
+        <v>230702.2138</v>
       </c>
       <c r="U9" t="n">
-        <v>49914.577472</v>
+        <v>42067.648</v>
       </c>
       <c r="V9" t="n">
-        <v>37504.5268464</v>
+        <v>30054.4726</v>
       </c>
       <c r="W9" t="n">
         <v>3380</v>
@@ -7621,7 +7837,7 @@
         <v>1650</v>
       </c>
       <c r="AA9" t="n">
-        <v>2310</v>
+        <v>2160</v>
       </c>
       <c r="AB9" t="n">
         <v>930</v>
@@ -7642,20 +7858,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,21978</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,27615;31,5031;41,0</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>538287.95245</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>706601.20245</v>
       </c>
     </row>
     <row r="10">
@@ -7680,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7689,7 +7921,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7711,21 +7943,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>295805.1945046</v>
+        <v>239659.9011518</v>
       </c>
       <c r="U10" t="n">
-        <v>51198.283392</v>
+        <v>43514.389184</v>
       </c>
       <c r="V10" t="n">
-        <v>38490.1857504</v>
+        <v>31451.6043808</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7740,7 +7972,7 @@
         <v>1650</v>
       </c>
       <c r="AA10" t="n">
-        <v>2460</v>
+        <v>2160</v>
       </c>
       <c r="AB10" t="n">
         <v>930</v>
@@ -7761,20 +7993,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,21978</t>
+          <t>21,0;31,0;41,4395</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,27615;31,5031;41,0</t>
-        </is>
+          <t>21,5523;31,1006;41,0</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>538287.95245</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2672.8574512</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>24300.8518098</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>733574.911711</v>
       </c>
     </row>
     <row r="11">
@@ -7799,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7808,7 +8064,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7830,21 +8086,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>345823.6876776</v>
+        <v>282812.7295386</v>
       </c>
       <c r="U11" t="n">
-        <v>58913.379032</v>
+        <v>50071.577472</v>
       </c>
       <c r="V11" t="n">
-        <v>45845.4667434</v>
+        <v>37631.5268464</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -7859,7 +8115,7 @@
         <v>1650</v>
       </c>
       <c r="AA11" t="n">
-        <v>2610</v>
+        <v>2310</v>
       </c>
       <c r="AB11" t="n">
         <v>930</v>
@@ -7880,20 +8136,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,43587</t>
+          <t>21,0;31,0;41,21978</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,54567;31,9940;41,0</t>
-        </is>
+          <t>21,27615;31,5031;41,0</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>538287.95245</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29528.9319632</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>121504.259049</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>857634.3934622001</v>
       </c>
     </row>
     <row r="12">
@@ -7918,13 +8198,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7949,21 +8229,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>308008.6594706</v>
+        <v>295016.1945046</v>
       </c>
       <c r="U12" t="n">
-        <v>52481.98931200001</v>
+        <v>51355.283392</v>
       </c>
       <c r="V12" t="n">
-        <v>39475.8446544</v>
+        <v>38617.1857504</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -7975,13 +8255,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="AA12" t="n">
-        <v>2610</v>
+        <v>2460</v>
       </c>
       <c r="AB12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7996,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8014,6 +8294,30 @@
           <t>21,27615;31,5031;41,0</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>538287.95245</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>56385.0064752</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>121504.259049</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>884490.4679741999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8022,10 +8326,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8040,13 +8344,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8058,10 +8362,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8072,17 +8376,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>446477.3213143999</v>
+        <v>345034.6876776</v>
       </c>
       <c r="U13" t="n">
-        <v>76721.002792</v>
+        <v>59070.379032</v>
       </c>
       <c r="V13" t="n">
-        <v>64289.354332</v>
+        <v>45972.4667434</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8094,44 +8398,68 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="AA13" t="n">
         <v>2610</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,27582</t>
+          <t>21,0;31,0;41,43587</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,34703;31,6324;41,0</t>
-        </is>
+          <t>21,54567;31,9940;41,0</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>538287.95245</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>83241.08098720001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>240321.20333575</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1030163.48677295</v>
       </c>
     </row>
     <row r="14">
@@ -8141,10 +8469,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8159,13 +8487,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8177,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8191,17 +8519,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>454562.566508</v>
+        <v>307219.6594706</v>
       </c>
       <c r="U14" t="n">
-        <v>78103.20140800001</v>
+        <v>52638.98931200001</v>
       </c>
       <c r="V14" t="n">
-        <v>65655.066368</v>
+        <v>39602.8446544</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8213,44 +8541,68 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1790</v>
+        <v>1580</v>
       </c>
       <c r="AA14" t="n">
         <v>2610</v>
       </c>
       <c r="AB14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,32179</t>
+          <t>21,0;31,0;41,21978</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,40487;31,7379;41,0</t>
-        </is>
+          <t>21,27615;31,5031;41,0</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>538287.95245</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>83241.08098720001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>121504.259049</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>911164.5424862</v>
       </c>
     </row>
     <row r="15">
@@ -8260,10 +8612,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8278,13 +8630,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8296,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8310,17 +8662,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1022439.5379282</v>
+        <v>448977.3213143999</v>
       </c>
       <c r="U15" t="n">
-        <v>180858.8710502</v>
+        <v>77529.002792</v>
       </c>
       <c r="V15" t="n">
-        <v>172453.41945</v>
+        <v>65063.354332</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8332,44 +8684,68 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2070</v>
+        <v>1720</v>
       </c>
       <c r="AA15" t="n">
         <v>2610</v>
       </c>
       <c r="AB15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,42662</t>
+          <t>21,0;31,0;41,27582</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,53671;31,9791;41,0</t>
-        </is>
+          <t>21,34703;31,6324;41,0</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>831889.9627500001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>127736.5061322</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>152851.559106</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1371425.2279882</v>
       </c>
     </row>
     <row r="16">
@@ -8379,10 +8755,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8397,13 +8773,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8415,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8429,17 +8805,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5190245.4230954</v>
+        <v>457062.566508</v>
       </c>
       <c r="U16" t="n">
-        <v>903958.9427992001</v>
+        <v>78911.20140800001</v>
       </c>
       <c r="V16" t="n">
-        <v>833770.9850828</v>
+        <v>66429.066368</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8451,44 +8827,68 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA16" t="n">
         <v>2610</v>
       </c>
       <c r="AB16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,105059</t>
+          <t>21,0;31,0;41,32179</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,138730;31,25394;41,0</t>
-        </is>
+          <t>21,40487;31,7379;41,0</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>831889.9627500001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>127736.5061322</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>178326.818957</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1397082.4878392</v>
       </c>
     </row>
     <row r="17">
@@ -8498,10 +8898,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8516,13 +8916,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8534,10 +8934,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8548,17 +8948,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8355044.508445701</v>
+        <v>1059934.5379282</v>
       </c>
       <c r="U17" t="n">
-        <v>1456065.9107368</v>
+        <v>187715.8710502</v>
       </c>
       <c r="V17" t="n">
-        <v>1335245.5922896</v>
+        <v>179086.41945</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8570,78 +8970,102 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3540</v>
+        <v>2070</v>
       </c>
       <c r="AA17" t="n">
         <v>2610</v>
       </c>
       <c r="AB17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,114229</t>
+          <t>21,0;31,0;41,42662</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,138730;31,25394;41,0</t>
-        </is>
+          <t>21,53671;31,9791;41,0</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1914557.59936</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>291559.53377224</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>237490.57687984</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3399214.46001208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8653,114 +9077,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>213762.3830396</v>
+        <v>5325122.4230954</v>
       </c>
       <c r="U18" t="n">
-        <v>42016.33409275</v>
+        <v>927686.9427992001</v>
       </c>
       <c r="V18" t="n">
-        <v>27292.864519</v>
+        <v>855610.9850828</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>3380</v>
       </c>
       <c r="X18" t="n">
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>670</v>
+        <v>2630</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>2610</v>
       </c>
       <c r="AB18" t="n">
-        <v>370</v>
+        <v>1910</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2742</t>
+          <t>21,0;31,0;41,105059</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,4001;31,709;41,0</t>
-        </is>
+          <t>21,138730;31,25394;41,0</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>11651873.728745</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1779154.51389098</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>629290.25</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16661674.99263598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8772,80 +9220,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>279886.7948976</v>
+        <v>8664762.508445701</v>
       </c>
       <c r="U19" t="n">
-        <v>52221.871588</v>
+        <v>1510098.9107368</v>
       </c>
       <c r="V19" t="n">
-        <v>37566.8342966</v>
+        <v>1384477.5922896</v>
       </c>
       <c r="W19" t="n">
-        <v>1700</v>
+        <v>3380</v>
       </c>
       <c r="X19" t="n">
-        <v>900</v>
+        <v>1440</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1040</v>
+        <v>3540</v>
       </c>
       <c r="AA19" t="n">
-        <v>1500</v>
+        <v>2610</v>
       </c>
       <c r="AB19" t="n">
-        <v>590</v>
+        <v>2820</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,3276</t>
+          <t>21,0;31,0;41,114229</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,4810;31,859;41,0</t>
-        </is>
+          <t>21,138730;31,25394;41,0</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>18903022.16298</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2887686.23521482</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>629290.25</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>27063306.64819482</v>
       </c>
     </row>
     <row r="20">
@@ -8855,31 +9327,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8891,80 +9363,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>394018.7078739</v>
+        <v>213762.3830396</v>
       </c>
       <c r="U20" t="n">
-        <v>70053.67353245</v>
+        <v>42016.33409275</v>
       </c>
       <c r="V20" t="n">
-        <v>55834.6104283</v>
+        <v>27292.864519</v>
       </c>
       <c r="W20" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA20" t="n">
-        <v>2460</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,5432</t>
+          <t>21,0;31,0;41,2742</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,7867;31,1405;41,0</t>
-        </is>
+          <t>21,4001;31,709;41,0</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>565600.77443</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2802.01962332</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17190.565210505</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>665726.059263825</v>
       </c>
     </row>
     <row r="21">
@@ -8974,31 +9470,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9010,80 +9506,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>456900.2857122</v>
+        <v>279886.7948976</v>
       </c>
       <c r="U21" t="n">
-        <v>81945.40973700001</v>
+        <v>52221.871588</v>
       </c>
       <c r="V21" t="n">
-        <v>66583.09919925001</v>
+        <v>37566.8342966</v>
       </c>
       <c r="W21" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1790</v>
+        <v>1040</v>
       </c>
       <c r="AA21" t="n">
-        <v>2610</v>
+        <v>1500</v>
       </c>
       <c r="AB21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,7041</t>
+          <t>21,0;31,0;41,3276</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,10112;31,1813;41,0</t>
-        </is>
+          <t>21,4810;31,859;41,0</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>672728.95155</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>36747.0268494</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>20673.82766085</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>863708.5060602501</v>
       </c>
     </row>
     <row r="22">
@@ -9093,10 +9613,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9108,16 +9628,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9129,31 +9649,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>525001.8536</v>
+        <v>394018.7078739</v>
       </c>
       <c r="U22" t="n">
-        <v>99178.98511359999</v>
+        <v>70053.67353245</v>
       </c>
       <c r="V22" t="n">
-        <v>81781.43050239999</v>
+        <v>55834.6104283</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9165,44 +9685,68 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2070</v>
+        <v>1650</v>
       </c>
       <c r="AA22" t="n">
-        <v>2610</v>
+        <v>2460</v>
       </c>
       <c r="AB22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,8531</t>
+          <t>21,0;31,0;41,5432</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,12084;31,2171;41,0</t>
-        </is>
+          <t>21,7867;31,1405;41,0</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>855558.37462</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>88979.05653468001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>33895.33405585</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1211512.06521053</v>
       </c>
     </row>
     <row r="23">
@@ -9212,10 +9756,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9230,13 +9774,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9248,10 +9792,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9262,17 +9806,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>665848.7838133</v>
+        <v>456900.2857122</v>
       </c>
       <c r="U23" t="n">
-        <v>134518.0290104</v>
+        <v>81945.40973700001</v>
       </c>
       <c r="V23" t="n">
-        <v>112725.1113484</v>
+        <v>66583.09919925001</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9284,44 +9828,354 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA23" t="n">
         <v>2610</v>
       </c>
       <c r="AB23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,7041</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,10112;31,1813;41,0</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>935205.466975</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>143384.6948773</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>43757.9214408875</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1418741.933293188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>525001.8536</v>
+      </c>
+      <c r="U24" t="n">
+        <v>99178.98511359999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>81781.43050239999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8531</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,12084;31,2171;41,0</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>1060762.016695</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>162351.17311018</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>52461.93646746</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1693873.57627264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>665848.7838133</v>
+      </c>
+      <c r="U25" t="n">
+        <v>134518.0290104</v>
+      </c>
+      <c r="V25" t="n">
+        <v>112725.1113484</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,0;31,0;41,12055</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,16049;31,2890;41,0</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1321164.702965</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>201723.22127336</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>72977.89999999999</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2257942.07423836</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/8.xlsx
+++ b/opm_hero_property/heroes/8.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>8</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5325122.4230954</v>
+        <v>6187165.355591401</v>
       </c>
       <c r="U2" t="n">
-        <v>927686.9427992001</v>
+        <v>1085988.3408632</v>
       </c>
       <c r="V2" t="n">
-        <v>855610.9850828</v>
+        <v>1002032.1014588</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11651873.728745</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1779154.51389098</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2938129.4982996</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1864160.1</v>
+      </c>
+      <c r="AU2" t="n">
         <v>629290.25</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16661674.99263598</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19457918.99093558</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>665848.7838133</v>
+        <v>762928.8682053</v>
       </c>
       <c r="U3" t="n">
-        <v>134518.0290104</v>
+        <v>152344.5221784</v>
       </c>
       <c r="V3" t="n">
-        <v>112725.1113484</v>
+        <v>129558.2224764</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1321164.702965</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>201723.22127336</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>584635.7762372</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>211246.1</v>
+      </c>
+      <c r="AU3" t="n">
         <v>72977.89999999999</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2257942.07423836</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2574815.35047556</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>8</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7321.1336</v>
+        <v>7775.1336</v>
       </c>
       <c r="U4" t="n">
-        <v>1613.3979</v>
+        <v>1696.3979</v>
       </c>
       <c r="V4" t="n">
-        <v>610.9739</v>
+        <v>687.9739</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19243.829035</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23700.679035</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1469.45</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25170.129035</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19490.1742</v>
+        <v>32835.1742</v>
       </c>
       <c r="U5" t="n">
-        <v>4040.9442</v>
+        <v>6490.9442</v>
       </c>
       <c r="V5" t="n">
-        <v>1886.845</v>
+        <v>4152.845</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49163.29793</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60992.09793</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43279.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104271.59793</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>54542.1168</v>
+        <v>111753.1168</v>
       </c>
       <c r="U6" t="n">
-        <v>10424.725</v>
+        <v>20930.725</v>
       </c>
       <c r="V6" t="n">
-        <v>6083.222</v>
+        <v>15800.222</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>118186.9458</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166386.2458</v>
+      <c r="AT6" t="n">
+        <v>185575.15</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>351961.3958</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>8</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>61735.5332672</v>
+        <v>118946.5332672</v>
       </c>
       <c r="U7" t="n">
-        <v>11645.1759</v>
+        <v>22151.1759</v>
       </c>
       <c r="V7" t="n">
-        <v>7301.642888</v>
+        <v>17018.642888</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>118186.9458</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>185575.15</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22620.4477832</v>
       </c>
-      <c r="AS7" t="n">
-        <v>189188.6935832</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>374763.8435832</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>8</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>69197.428552</v>
+        <v>126408.428552</v>
       </c>
       <c r="U8" t="n">
-        <v>12896.0777</v>
+        <v>23402.0777</v>
       </c>
       <c r="V8" t="n">
-        <v>8538.484664</v>
+        <v>18255.484664</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>118186.9458</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>584.5101336000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>185575.15</v>
+      </c>
+      <c r="AU8" t="n">
         <v>45240.8955664</v>
       </c>
-      <c r="AS8" t="n">
-        <v>212393.6515</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>397968.8015000001</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>8</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>230702.2138</v>
+        <v>403289.565938</v>
       </c>
       <c r="U9" t="n">
-        <v>42067.648</v>
+        <v>71948.57448000001</v>
       </c>
       <c r="V9" t="n">
-        <v>30054.4726</v>
+        <v>57125.887326</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>538287.95245</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>706601.20245</v>
+        <v>44259.6295245</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>434824.15</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1241147.5819745</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>239659.9011518</v>
+        <v>469264.6638490164</v>
       </c>
       <c r="U10" t="n">
-        <v>43514.389184</v>
+        <v>82759.11502790402</v>
       </c>
       <c r="V10" t="n">
-        <v>31451.6043808</v>
+        <v>65073.6334507224</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>538287.95245</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2672.8574512</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44259.6295245</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>434824.15</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24300.8518098</v>
       </c>
-      <c r="AS10" t="n">
-        <v>733574.911711</v>
+      <c r="AV10" t="n">
+        <v>253641.2586477079</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1427414.949883208</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>8</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>282812.7295386</v>
+        <v>577368.9631467789</v>
       </c>
       <c r="U11" t="n">
-        <v>50071.577472</v>
+        <v>98263.05009427201</v>
       </c>
       <c r="V11" t="n">
-        <v>37631.5268464</v>
+        <v>78490.7945207032</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA11" t="n">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="AB11" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>538287.95245</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>29528.9319632</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44259.6295245</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>434824.15</v>
+      </c>
+      <c r="AU11" t="n">
         <v>121504.259049</v>
       </c>
-      <c r="AS11" t="n">
-        <v>857634.3934622001</v>
+      <c r="AV11" t="n">
+        <v>421939.4043045991</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1719772.577291299</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>8</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>295016.1945046</v>
+        <v>672164.6771220944</v>
       </c>
       <c r="U12" t="n">
-        <v>51355.283392</v>
+        <v>108932.746279312</v>
       </c>
       <c r="V12" t="n">
-        <v>38617.1857504</v>
+        <v>90487.90569640879</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="AA12" t="n">
-        <v>2460</v>
+        <v>2480</v>
       </c>
       <c r="AB12" t="n">
-        <v>930</v>
+        <v>1010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>538287.95245</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>56385.0064752</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44259.6295245</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>434824.15</v>
+      </c>
+      <c r="AU12" t="n">
         <v>121504.259049</v>
       </c>
-      <c r="AS12" t="n">
-        <v>884490.4679741999</v>
+      <c r="AV12" t="n">
+        <v>632730.8367049978</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1957420.084203698</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>8</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>345034.6876776</v>
+        <v>819305.5746517276</v>
       </c>
       <c r="U13" t="n">
-        <v>59070.379032</v>
+        <v>129658.122927752</v>
       </c>
       <c r="V13" t="n">
-        <v>45972.4667434</v>
+        <v>109005.5804911148</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA13" t="n">
-        <v>2610</v>
+        <v>2660</v>
       </c>
       <c r="AB13" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>538287.95245</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>83241.08098720001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44259.6295245</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>434824.15</v>
+      </c>
+      <c r="AU13" t="n">
         <v>240321.20333575</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1030163.48677295</v>
+      <c r="AV13" t="n">
+        <v>884167.9443796762</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2354530.210677126</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>8</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>307219.6594706</v>
+        <v>912454.8361658128</v>
       </c>
       <c r="U14" t="n">
-        <v>52638.98931200001</v>
+        <v>137936.809771008</v>
       </c>
       <c r="V14" t="n">
-        <v>39602.8446544</v>
+        <v>112658.6976055296</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="AA14" t="n">
-        <v>2610</v>
+        <v>2660</v>
       </c>
       <c r="AB14" t="n">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>538287.95245</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>83241.08098720001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44077.6295245</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>434824.15</v>
+      </c>
+      <c r="AU14" t="n">
         <v>121504.259049</v>
       </c>
-      <c r="AS14" t="n">
-        <v>911164.5424862</v>
+      <c r="AV14" t="n">
+        <v>1174262.512806863</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2525625.834817564</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>8</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>448977.3213143999</v>
+        <v>1444933.136815543</v>
       </c>
       <c r="U15" t="n">
-        <v>77529.002792</v>
+        <v>230206.21558304</v>
       </c>
       <c r="V15" t="n">
-        <v>65063.354332</v>
+        <v>191478.022836016</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1720</v>
+        <v>1820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2610</v>
+        <v>2710</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>831889.9627500001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>127736.5061322</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128041.099255</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>795592</v>
+      </c>
+      <c r="AU15" t="n">
         <v>152851.559106</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1371425.2279882</v>
+      <c r="AV15" t="n">
+        <v>1965299.628402411</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4148938.155645611</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>457062.566508</v>
+        <v>1480744.412232084</v>
       </c>
       <c r="U16" t="n">
-        <v>78911.20140800001</v>
+        <v>235931.539213968</v>
       </c>
       <c r="V16" t="n">
-        <v>66429.066368</v>
+        <v>196369.974514332</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA16" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB16" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>831889.9627500001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>127736.5061322</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128223.099255</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>795592</v>
+      </c>
+      <c r="AU16" t="n">
         <v>178326.818957</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1397082.4878392</v>
+      <c r="AV16" t="n">
+        <v>2044469.099171672</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4253764.886265872</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1059934.5379282</v>
+        <v>2656464.489964886</v>
       </c>
       <c r="U17" t="n">
-        <v>187715.8710502</v>
+        <v>426561.4064050464</v>
       </c>
       <c r="V17" t="n">
-        <v>179086.41945</v>
+        <v>386991.1589624</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA17" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB17" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1914557.59936</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>291559.53377224</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>762151.3039744</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1271159.2</v>
+      </c>
+      <c r="AU17" t="n">
         <v>237490.57687984</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3399214.46001208</v>
+      <c r="AV17" t="n">
+        <v>3094707.894207027</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7841630.858193507</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>8</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5325122.4230954</v>
+        <v>9360629.636753121</v>
       </c>
       <c r="U18" t="n">
-        <v>927686.9427992001</v>
+        <v>1482678.565085058</v>
       </c>
       <c r="V18" t="n">
-        <v>855610.9850828</v>
+        <v>1343433.633430938</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA18" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB18" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11651873.728745</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1779154.51389098</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2938129.4982996</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1864160.1</v>
+      </c>
+      <c r="AU18" t="n">
         <v>629290.25</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16661674.99263598</v>
+      <c r="AV18" t="n">
+        <v>7876085.637132332</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27334004.62806791</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8664762.508445701</v>
+        <v>16031965.71576467</v>
       </c>
       <c r="U19" t="n">
-        <v>1510098.9107368</v>
+        <v>2644230.821816691</v>
       </c>
       <c r="V19" t="n">
-        <v>1384477.5922896</v>
+        <v>2379509.742557926</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3540</v>
+        <v>3740</v>
       </c>
       <c r="AA19" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB19" t="n">
-        <v>2820</v>
+        <v>3620</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18903022.16298</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2887686.23521482</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6302757.174447</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1864160.1</v>
+      </c>
+      <c r="AU19" t="n">
         <v>629290.25</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27063306.64819482</v>
+      <c r="AV19" t="n">
+        <v>16217058.58336609</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47979854.90600791</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>8</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213762.3830396</v>
+        <v>220204.3830396</v>
       </c>
       <c r="U20" t="n">
-        <v>42016.33409275</v>
+        <v>43199.33409275</v>
       </c>
       <c r="V20" t="n">
-        <v>27292.864519</v>
+        <v>28409.864519</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>565600.77443</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2802.01962332</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21027.45</v>
+      </c>
+      <c r="AU20" t="n">
         <v>17190.565210505</v>
       </c>
-      <c r="AS20" t="n">
-        <v>665726.059263825</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>686753.509263825</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>8</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>279886.7948976</v>
+        <v>293202.9018616</v>
       </c>
       <c r="U21" t="n">
-        <v>52221.871588</v>
+        <v>54683.613468</v>
       </c>
       <c r="V21" t="n">
-        <v>37566.8342966</v>
+        <v>39809.8279626</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>672728.95155</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>36747.0268494</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72226.63951549999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36480.3</v>
+      </c>
+      <c r="AU21" t="n">
         <v>20673.82766085</v>
       </c>
-      <c r="AS21" t="n">
-        <v>863708.5060602501</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>906907.84557575</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>8</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>394018.7078739</v>
+        <v>520300.6442975633</v>
       </c>
       <c r="U22" t="n">
-        <v>70053.67353245</v>
+        <v>88910.30010890146</v>
       </c>
       <c r="V22" t="n">
-        <v>55834.6104283</v>
+        <v>71870.73619092521</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA22" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="AB22" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>855558.37462</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>88979.05653468001</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103936.7337462</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49270.55</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33895.33405585</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1211512.06521053</v>
+      <c r="AV22" t="n">
+        <v>291382.4991900732</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1560712.448146803</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>8</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>456900.2857122</v>
+        <v>672662.6159316371</v>
       </c>
       <c r="U23" t="n">
-        <v>81945.40973700001</v>
+        <v>117860.687203359</v>
       </c>
       <c r="V23" t="n">
-        <v>66583.09919925001</v>
+        <v>94895.61385117276</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA23" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB23" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>935205.466975</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>143384.6948773</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170410.6093395</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90154.55</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43757.9214408875</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1418741.933293188</v>
+      <c r="AV23" t="n">
+        <v>519932.5446463702</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2047516.637279058</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>8</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>525001.8536</v>
+        <v>843535.1762128001</v>
       </c>
       <c r="U24" t="n">
-        <v>99178.98511359999</v>
+        <v>153182.7067346192</v>
       </c>
       <c r="V24" t="n">
-        <v>81781.43050239999</v>
+        <v>125316.6042178232</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA24" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB24" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1060762.016695</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>162351.17311018</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303215.6806678</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144048.6</v>
+      </c>
+      <c r="AU24" t="n">
         <v>52461.93646746</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1693873.57627264</v>
+      <c r="AV24" t="n">
+        <v>757440.1699937158</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2637759.826934156</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>8</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>665848.7838133</v>
+        <v>1438885.387889486</v>
       </c>
       <c r="U25" t="n">
-        <v>134518.0290104</v>
+        <v>262349.6109026424</v>
       </c>
       <c r="V25" t="n">
-        <v>112725.1113484</v>
+        <v>219610.4910334452</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA25" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AB25" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1321164.702965</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>201723.22127336</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>584635.7762372</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>211246.1</v>
+      </c>
+      <c r="AU25" t="n">
         <v>72977.89999999999</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2257942.07423836</v>
+      <c r="AV25" t="n">
+        <v>1955192.176084469</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4530007.526560029</v>
       </c>
     </row>
   </sheetData>
